--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artun\Desktop\Dosyalar\github_repos\EffiTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40016397-2666-4718-9558-4821C176C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AF268E-CFF1-4BA0-A116-CDFA619EDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ham optimize veri seti" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="206">
   <si>
     <t>NaiveBayes</t>
   </si>
@@ -47,30 +47,15 @@
     <t xml:space="preserve">Doğruluk (Accuracy): </t>
   </si>
   <si>
-    <t>0.501465048137296</t>
-  </si>
-  <si>
-    <t>0.2693156732891832</t>
-  </si>
-  <si>
     <t>Kesinlik (Precision):</t>
   </si>
   <si>
-    <t>0.648936170212766</t>
-  </si>
-  <si>
     <t>Duyarlılık (Recall):</t>
   </si>
   <si>
-    <t>0.3806552262090484</t>
-  </si>
-  <si>
     <t>F Ölçümü (F1 Score):</t>
   </si>
   <si>
-    <t>0.4985349518627041</t>
-  </si>
-  <si>
     <t>Hata Oranı (Error Rate):</t>
   </si>
   <si>
@@ -83,93 +68,27 @@
     <t>Optimize</t>
   </si>
   <si>
-    <t>0.7626622017580578</t>
-  </si>
-  <si>
-    <t>0.8571428571428571</t>
-  </si>
-  <si>
-    <t>0.025884383088869714</t>
-  </si>
-  <si>
-    <t>0.05025125628140703</t>
-  </si>
-  <si>
-    <t>0.23733779824194223</t>
-  </si>
-  <si>
     <t>DecisionTree</t>
   </si>
   <si>
-    <t>0.7649644202595228</t>
-  </si>
-  <si>
-    <t>0.8333333333333334</t>
-  </si>
-  <si>
-    <t>0.03882657463330457</t>
-  </si>
-  <si>
-    <t>0.07419620774938171</t>
-  </si>
-  <si>
-    <t>0.23503557974047717</t>
-  </si>
-  <si>
     <t>Makine Öğrenimi</t>
   </si>
   <si>
     <t>RandomForest(2000)</t>
   </si>
   <si>
-    <t>0.7706153202176643</t>
-  </si>
-  <si>
-    <t>0.9565217391304348</t>
-  </si>
-  <si>
-    <t>0.056945642795513375</t>
-  </si>
-  <si>
-    <t>0.10749185667752444</t>
-  </si>
-  <si>
-    <t>0.2293846797823357</t>
-  </si>
-  <si>
     <t>KNN(5)</t>
   </si>
   <si>
-    <t>0.8160318124738384</t>
-  </si>
-  <si>
-    <t>0.6256306760847629</t>
-  </si>
-  <si>
-    <t>0.549645390070922</t>
-  </si>
-  <si>
-    <t>0.5851816894761681</t>
-  </si>
-  <si>
-    <t>0.18396818752616156</t>
-  </si>
-  <si>
     <t>SWM</t>
   </si>
   <si>
-    <t>0.7574298869820009</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.24257011301799916</t>
-  </si>
-  <si>
     <t>Derin  Öğrenme</t>
   </si>
   <si>
@@ -179,117 +98,24 @@
     <t xml:space="preserve">En İyi Eşik Değeri: </t>
   </si>
   <si>
-    <t>0.20</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNN </t>
   </si>
   <si>
-    <t>0.8072</t>
-  </si>
-  <si>
-    <t>0.2946</t>
-  </si>
-  <si>
-    <t>0.2540</t>
-  </si>
-  <si>
-    <t>0.2728</t>
-  </si>
-  <si>
-    <t>0.1928</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNN </t>
   </si>
   <si>
-    <t>0.6422</t>
-  </si>
-  <si>
-    <t>0.1731</t>
-  </si>
-  <si>
-    <t>0.4007</t>
-  </si>
-  <si>
-    <t>0.2418</t>
-  </si>
-  <si>
-    <t>0.3578</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.7790</t>
-  </si>
-  <si>
-    <t>0.3315</t>
-  </si>
-  <si>
-    <t>0.5438</t>
-  </si>
-  <si>
-    <t>0.4119</t>
-  </si>
-  <si>
-    <t>0.2210</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSTM </t>
   </si>
   <si>
     <t xml:space="preserve">GRU </t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.8159</t>
-  </si>
-  <si>
-    <t>0.3186</t>
-  </si>
-  <si>
-    <t>0.2576</t>
-  </si>
-  <si>
-    <t>0.2849</t>
-  </si>
-  <si>
-    <t>0.1841</t>
-  </si>
-  <si>
-    <t>0.3458</t>
-  </si>
-  <si>
-    <t>0.1474</t>
-  </si>
-  <si>
-    <t>0.7513</t>
-  </si>
-  <si>
-    <t>0.2464</t>
-  </si>
-  <si>
-    <t>0.6542</t>
-  </si>
-  <si>
     <t>0dan sonra 4 hane alınacak</t>
   </si>
   <si>
     <t xml:space="preserve">Vanilla Transformer	 </t>
   </si>
   <si>
-    <t>0.1423</t>
-  </si>
-  <si>
-    <t>0.2492</t>
-  </si>
-  <si>
-    <t>0.8577</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encoder-Decoder Transformer	</t>
   </si>
   <si>
@@ -302,25 +128,523 @@
     <t>Standart</t>
   </si>
   <si>
-    <t>0.3397</t>
-  </si>
-  <si>
-    <t>0.1596</t>
-  </si>
-  <si>
-    <t>0.8533</t>
-  </si>
-  <si>
     <t>0.2690</t>
   </si>
   <si>
-    <t>0.6603</t>
-  </si>
-  <si>
     <t>Vanilla Transformer</t>
   </si>
   <si>
     <t>Encoder-Decoder Transformer</t>
+  </si>
+  <si>
+    <t>0.5014</t>
+  </si>
+  <si>
+    <t>0.2693</t>
+  </si>
+  <si>
+    <t>0.6489</t>
+  </si>
+  <si>
+    <t>0.3806</t>
+  </si>
+  <si>
+    <t>0.4985</t>
+  </si>
+  <si>
+    <t>0.7626</t>
+  </si>
+  <si>
+    <t>0.8571</t>
+  </si>
+  <si>
+    <t>0.0258</t>
+  </si>
+  <si>
+    <t>0.0502</t>
+  </si>
+  <si>
+    <t>0.2373</t>
+  </si>
+  <si>
+    <t>0.7649</t>
+  </si>
+  <si>
+    <t>0.8333</t>
+  </si>
+  <si>
+    <t>0.0388</t>
+  </si>
+  <si>
+    <t>0.0741</t>
+  </si>
+  <si>
+    <t>0.2350</t>
+  </si>
+  <si>
+    <t>0.7706</t>
+  </si>
+  <si>
+    <t>0.9565</t>
+  </si>
+  <si>
+    <t>0.0569</t>
+  </si>
+  <si>
+    <t>0.1074</t>
+  </si>
+  <si>
+    <t>0.2293</t>
+  </si>
+  <si>
+    <t>0.8160</t>
+  </si>
+  <si>
+    <t>0.6256</t>
+  </si>
+  <si>
+    <t>0.5496</t>
+  </si>
+  <si>
+    <t>0.5851</t>
+  </si>
+  <si>
+    <t>0.1839</t>
+  </si>
+  <si>
+    <t>0.7574</t>
+  </si>
+  <si>
+    <t>0.2425</t>
+  </si>
+  <si>
+    <t>0.5235</t>
+  </si>
+  <si>
+    <t>0.2387</t>
+  </si>
+  <si>
+    <t>0.4884</t>
+  </si>
+  <si>
+    <t>0.3206</t>
+  </si>
+  <si>
+    <t>0.4764</t>
+  </si>
+  <si>
+    <t>0.7664</t>
+  </si>
+  <si>
+    <t>0.6470</t>
+  </si>
+  <si>
+    <t>0.0352</t>
+  </si>
+  <si>
+    <t>0.0668</t>
+  </si>
+  <si>
+    <t>0.2335</t>
+  </si>
+  <si>
+    <t>0.7877</t>
+  </si>
+  <si>
+    <t>0.7020</t>
+  </si>
+  <si>
+    <t>0.1835</t>
+  </si>
+  <si>
+    <t>0.2910</t>
+  </si>
+  <si>
+    <t>0.2122</t>
+  </si>
+  <si>
+    <t>0.7831</t>
+  </si>
+  <si>
+    <t>0.9009</t>
+  </si>
+  <si>
+    <t>0.0971</t>
+  </si>
+  <si>
+    <t>0.1753</t>
+  </si>
+  <si>
+    <t>0.2168</t>
+  </si>
+  <si>
+    <t>0.8107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6020 </t>
+  </si>
+  <si>
+    <t>0.5258</t>
+  </si>
+  <si>
+    <t>0.5613</t>
+  </si>
+  <si>
+    <t>0.1892</t>
+  </si>
+  <si>
+    <t>0.5398</t>
+  </si>
+  <si>
+    <t>0.5307</t>
+  </si>
+  <si>
+    <t>0.5175</t>
+  </si>
+  <si>
+    <t>0.5240</t>
+  </si>
+  <si>
+    <t>0.4601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6299 </t>
+  </si>
+  <si>
+    <t>0.6572</t>
+  </si>
+  <si>
+    <t>0.6120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6338 </t>
+  </si>
+  <si>
+    <t>0.3700</t>
+  </si>
+  <si>
+    <t>0.6830</t>
+  </si>
+  <si>
+    <t>0.6654</t>
+  </si>
+  <si>
+    <t>0.7928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7235 </t>
+  </si>
+  <si>
+    <t>0.3169</t>
+  </si>
+  <si>
+    <t>0.6919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7032 </t>
+  </si>
+  <si>
+    <t>0.7114</t>
+  </si>
+  <si>
+    <t>0.7073</t>
+  </si>
+  <si>
+    <t>0.3080</t>
+  </si>
+  <si>
+    <t>0.7079</t>
+  </si>
+  <si>
+    <t>0.6793</t>
+  </si>
+  <si>
+    <t>0.7638</t>
+  </si>
+  <si>
+    <t>0.7191</t>
+  </si>
+  <si>
+    <t>0.2920</t>
+  </si>
+  <si>
+    <t>0.6089</t>
+  </si>
+  <si>
+    <t>0.6431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5676 </t>
+  </si>
+  <si>
+    <t>0.6030</t>
+  </si>
+  <si>
+    <t>0.3910</t>
+  </si>
+  <si>
+    <t>0.5553</t>
+  </si>
+  <si>
+    <t>0.5397</t>
+  </si>
+  <si>
+    <t>0.7113</t>
+  </si>
+  <si>
+    <t>0.6137</t>
+  </si>
+  <si>
+    <t>0.4446</t>
+  </si>
+  <si>
+    <t>0.6078</t>
+  </si>
+  <si>
+    <t>0.6155</t>
+  </si>
+  <si>
+    <t>0.6433</t>
+  </si>
+  <si>
+    <t>0.6291</t>
+  </si>
+  <si>
+    <t>0.3921</t>
+  </si>
+  <si>
+    <t>0.6449</t>
+  </si>
+  <si>
+    <t>0.6219</t>
+  </si>
+  <si>
+    <t>0.7986</t>
+  </si>
+  <si>
+    <t>0.6992</t>
+  </si>
+  <si>
+    <t>0.3550</t>
+  </si>
+  <si>
+    <t>0.6669</t>
+  </si>
+  <si>
+    <t>0.6436</t>
+  </si>
+  <si>
+    <t>0.7969</t>
+  </si>
+  <si>
+    <t>0.7121</t>
+  </si>
+  <si>
+    <t>0.3330</t>
+  </si>
+  <si>
+    <t>0.5990</t>
+  </si>
+  <si>
+    <t>0.6034</t>
+  </si>
+  <si>
+    <t>0.6544</t>
+  </si>
+  <si>
+    <t>0.6279</t>
+  </si>
+  <si>
+    <t>0.4009</t>
+  </si>
+  <si>
+    <t>0.7309</t>
+  </si>
+  <si>
+    <t>0.7021</t>
+  </si>
+  <si>
+    <t>0.7957</t>
+  </si>
+  <si>
+    <t>0.7460</t>
+  </si>
+  <si>
+    <t>0.5171</t>
+  </si>
+  <si>
+    <t>0.5262</t>
+  </si>
+  <si>
+    <t>0.4929</t>
+  </si>
+  <si>
+    <t>0.5090</t>
+  </si>
+  <si>
+    <t>0.4828</t>
+  </si>
+  <si>
+    <t>0.6261</t>
+  </si>
+  <si>
+    <t>0.6263</t>
+  </si>
+  <si>
+    <t>0.6240</t>
+  </si>
+  <si>
+    <t>0.3738</t>
+  </si>
+  <si>
+    <t>0.6932</t>
+  </si>
+  <si>
+    <t>0.7069</t>
+  </si>
+  <si>
+    <t>0.6506</t>
+  </si>
+  <si>
+    <t>0.6776</t>
+  </si>
+  <si>
+    <t>0.3067</t>
+  </si>
+  <si>
+    <t>0.7296</t>
+  </si>
+  <si>
+    <t>0.7139</t>
+  </si>
+  <si>
+    <t>0.7578</t>
+  </si>
+  <si>
+    <t>0.7352</t>
+  </si>
+  <si>
+    <t>0.2703</t>
+  </si>
+  <si>
+    <t>0.8882</t>
+  </si>
+  <si>
+    <t>0.8563</t>
+  </si>
+  <si>
+    <t>0.9370</t>
+  </si>
+  <si>
+    <t>0.8948</t>
+  </si>
+  <si>
+    <t>0.1117</t>
+  </si>
+  <si>
+    <t>0.6222</t>
+  </si>
+  <si>
+    <t>0.6251</t>
+  </si>
+  <si>
+    <t>0.5930</t>
+  </si>
+  <si>
+    <t>0.6087</t>
+  </si>
+  <si>
+    <t>0.3777</t>
+  </si>
+  <si>
+    <t>0.5561</t>
+  </si>
+  <si>
+    <t>0.5522</t>
+  </si>
+  <si>
+    <t>0.6331</t>
+  </si>
+  <si>
+    <t>0.5899</t>
+  </si>
+  <si>
+    <t>0.4438</t>
+  </si>
+  <si>
+    <t>0.6258</t>
+  </si>
+  <si>
+    <t>0.6116</t>
+  </si>
+  <si>
+    <t>0.6808</t>
+  </si>
+  <si>
+    <t>0.6443</t>
+  </si>
+  <si>
+    <t>0.3741</t>
+  </si>
+  <si>
+    <t>0.6801</t>
+  </si>
+  <si>
+    <t>0.6432</t>
+  </si>
+  <si>
+    <t>0.8024</t>
+  </si>
+  <si>
+    <t>0.7141</t>
+  </si>
+  <si>
+    <t>0.3198</t>
+  </si>
+  <si>
+    <t>0.7111</t>
+  </si>
+  <si>
+    <t>0.6723</t>
+  </si>
+  <si>
+    <t>0.8190</t>
+  </si>
+  <si>
+    <t>0.7384</t>
+  </si>
+  <si>
+    <t>0.2888</t>
+  </si>
+  <si>
+    <t>0.8919</t>
+  </si>
+  <si>
+    <t>0.8686</t>
+  </si>
+  <si>
+    <t>0.9256</t>
+  </si>
+  <si>
+    <t>0.8962</t>
+  </si>
+  <si>
+    <t>0.1080</t>
+  </si>
+  <si>
+    <t>0.6315</t>
+  </si>
+  <si>
+    <t>0.6046</t>
+  </si>
+  <si>
+    <t>0.7506</t>
+  </si>
+  <si>
+    <t>0.6697</t>
+  </si>
+  <si>
+    <t>0.3684</t>
   </si>
 </sst>
 </file>
@@ -403,6 +727,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,8 +1242,8 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{9CEF491E-3E1A-4726-BF90-E2977AE98907}" name="Table13058" displayName="Table13058" ref="A3:B12" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A3:B12" xr:uid="{9CEF491E-3E1A-4726-BF90-E2977AE98907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{9CEF491E-3E1A-4726-BF90-E2977AE98907}" name="Table13058" displayName="Table13058" ref="A3:B13" totalsRowShown="0" headerRowDxfId="55">
+  <autoFilter ref="A3:B13" xr:uid="{9CEF491E-3E1A-4726-BF90-E2977AE98907}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7EC0712-5401-4D4F-9A2A-CD339DD4C51F}" name="NaiveBayes"/>
     <tableColumn id="2" xr3:uid="{7975E664-50AD-4A14-A932-9F177354C9BA}" name="Sonuçlar"/>
@@ -940,7 +1264,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{70064748-A2F9-4A78-B68E-9BDAA123EC59}" name="Table133159" displayName="Table133159" ref="A14:B23" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{70064748-A2F9-4A78-B68E-9BDAA123EC59}" name="Table133159" displayName="Table133159" ref="A14:B23" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A14:B23" xr:uid="{70064748-A2F9-4A78-B68E-9BDAA123EC59}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D16F06A0-8F41-427E-92BB-60D61BF03870}" name="LogisticRegression"/>
@@ -951,7 +1275,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{A3EBA240-D89C-433C-9ACA-C9AB8774F8C8}" name="Table143260" displayName="Table143260" ref="D3:E12" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{A3EBA240-D89C-433C-9ACA-C9AB8774F8C8}" name="Table143260" displayName="Table143260" ref="D3:E12" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="D3:E12" xr:uid="{A3EBA240-D89C-433C-9ACA-C9AB8774F8C8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4892EDBC-7466-4CE5-ADDD-6284F7825929}" name="NaiveBayes"/>
@@ -962,7 +1286,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{BDFCB01C-FB68-4900-BFE7-A4C462B10A54}" name="Table1353361" displayName="Table1353361" ref="D14:E23" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{BDFCB01C-FB68-4900-BFE7-A4C462B10A54}" name="Table1353361" displayName="Table1353361" ref="D14:E23" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="D14:E23" xr:uid="{BDFCB01C-FB68-4900-BFE7-A4C462B10A54}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D38A485D-C851-4786-A06F-17BE1B6CD054}" name="LogisticRegression"/>
@@ -973,7 +1297,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{8952ACF2-956C-467F-AA1C-42A265DDBE38}" name="Table1363462" displayName="Table1363462" ref="A25:B34" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{8952ACF2-956C-467F-AA1C-42A265DDBE38}" name="Table1363462" displayName="Table1363462" ref="A25:B34" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A25:B34" xr:uid="{8952ACF2-956C-467F-AA1C-42A265DDBE38}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{68BAA5C1-B227-4CA1-9C43-CFD33DF895D3}" name="DecisionTree"/>
@@ -984,7 +1308,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{F02BE2AB-8970-470E-BF69-B1475845BA3F}" name="Table1373563" displayName="Table1373563" ref="D25:E34" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{F02BE2AB-8970-470E-BF69-B1475845BA3F}" name="Table1373563" displayName="Table1373563" ref="D25:E34" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="D25:E34" xr:uid="{F02BE2AB-8970-470E-BF69-B1475845BA3F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4ABC04BF-22E0-4E79-86E7-06F82C59E2D8}" name="DecisionTree"/>
@@ -995,7 +1319,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{7CE39A6C-CB44-40BF-85CA-1050CDB6B76A}" name="Table13683664" displayName="Table13683664" ref="A36:B45" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{7CE39A6C-CB44-40BF-85CA-1050CDB6B76A}" name="Table13683664" displayName="Table13683664" ref="A36:B45" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A36:B45" xr:uid="{7CE39A6C-CB44-40BF-85CA-1050CDB6B76A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1EA96F0-10BC-43AB-8B6F-875FD6E0B280}" name="RandomForest(2000)"/>
@@ -1006,7 +1330,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="64" xr:uid="{5729E620-0EE0-4A63-9E99-F335C69311DC}" name="Table13793765" displayName="Table13793765" ref="D36:E45" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="64" xr:uid="{5729E620-0EE0-4A63-9E99-F335C69311DC}" name="Table13793765" displayName="Table13793765" ref="D36:E45" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="D36:E45" xr:uid="{5729E620-0EE0-4A63-9E99-F335C69311DC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1737212-6D65-4169-AD3C-ACA55F97744F}" name="RandomForest(2000)"/>
@@ -1017,7 +1341,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{2EF5E35B-6E3A-44D9-8347-6FE53D1D28D7}" name="Table1368103866" displayName="Table1368103866" ref="A47:B56" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{2EF5E35B-6E3A-44D9-8347-6FE53D1D28D7}" name="Table1368103866" displayName="Table1368103866" ref="A47:B56" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A47:B56" xr:uid="{2EF5E35B-6E3A-44D9-8347-6FE53D1D28D7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{670E3BD8-35B3-4587-B091-1641E3ABF701}" name="KNN(5)"/>
@@ -1028,7 +1352,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{56077002-5910-47EB-9EFB-669A755BC705}" name="Table1379113967" displayName="Table1379113967" ref="D47:E56" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{56077002-5910-47EB-9EFB-669A755BC705}" name="Table1379113967" displayName="Table1379113967" ref="D47:E56" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="D47:E56" xr:uid="{56077002-5910-47EB-9EFB-669A755BC705}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{14A8E6ED-8BC0-464E-9138-7ED0102BD9EB}" name="KNN(5)"/>
@@ -1039,7 +1363,7 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="67" xr:uid="{0D8BD206-7DD9-46F4-BC2B-C262BA7DB415}" name="Table136810124068" displayName="Table136810124068" ref="A58:B67" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="67" xr:uid="{0D8BD206-7DD9-46F4-BC2B-C262BA7DB415}" name="Table136810124068" displayName="Table136810124068" ref="A58:B67" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A58:B67" xr:uid="{0D8BD206-7DD9-46F4-BC2B-C262BA7DB415}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{466EF387-C929-48D4-8DDD-6756308E3A2A}" name="SWM"/>
@@ -1061,7 +1385,7 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{62A100E7-2DDD-49D5-B81F-5B4D1912180B}" name="Table137911134169" displayName="Table137911134169" ref="D58:E67" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{62A100E7-2DDD-49D5-B81F-5B4D1912180B}" name="Table137911134169" displayName="Table137911134169" ref="D58:E67" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="D58:E67" xr:uid="{62A100E7-2DDD-49D5-B81F-5B4D1912180B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{43CE5BCC-3F71-4113-8F19-D3171A0673AB}" name="SWM"/>
@@ -1072,7 +1396,7 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="69" xr:uid="{C48CA5BF-A78E-4A57-B6F1-009914DC37F8}" name="Table13681012144270" displayName="Table13681012144270" ref="A70:B80" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="69" xr:uid="{C48CA5BF-A78E-4A57-B6F1-009914DC37F8}" name="Table13681012144270" displayName="Table13681012144270" ref="A70:B80" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A70:B80" xr:uid="{C48CA5BF-A78E-4A57-B6F1-009914DC37F8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BF0B7337-7167-434D-B9D9-D1817024AADE}" name="Autoencoder"/>
@@ -1083,7 +1407,7 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{17CF691A-52DD-491D-A45C-D27AAD0C98AC}" name="Table1368101214154371" displayName="Table1368101214154371" ref="A82:B92" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{17CF691A-52DD-491D-A45C-D27AAD0C98AC}" name="Table1368101214154371" displayName="Table1368101214154371" ref="A82:B92" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A82:B92" xr:uid="{17CF691A-52DD-491D-A45C-D27AAD0C98AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EAE52953-1B42-44E6-BAC2-2D80DA2DCCEC}" name="CNN "/>
@@ -1094,7 +1418,7 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="71" xr:uid="{752DE57F-F3AE-4142-810B-C921103EA02C}" name="Table136810121415164472" displayName="Table136810121415164472" ref="A94:B104" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="71" xr:uid="{752DE57F-F3AE-4142-810B-C921103EA02C}" name="Table136810121415164472" displayName="Table136810121415164472" ref="A94:B104" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A94:B104" xr:uid="{752DE57F-F3AE-4142-810B-C921103EA02C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BCBC9688-0766-4E70-A3A5-79B7FB6693D5}" name="RNN "/>
@@ -1105,7 +1429,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}" name="Table1368101214174573" displayName="Table1368101214174573" ref="D70:E80" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}" name="Table1368101214174573" displayName="Table1368101214174573" ref="D70:E80" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="D70:E80" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9C83E6EB-85E0-4895-92FD-0D965C876DBC}" name="Autoencoder"/>
@@ -1116,7 +1440,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}" name="Table136810121415184674" displayName="Table136810121415184674" ref="D82:E92" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}" name="Table136810121415184674" displayName="Table136810121415184674" ref="D82:E92" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="D82:E92" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97EFC241-0805-4353-8F99-814F3D91ACCA}" name="CNN "/>
@@ -1127,7 +1451,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}" name="Table13681012141516194775" displayName="Table13681012141516194775" ref="D94:E104" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}" name="Table13681012141516194775" displayName="Table13681012141516194775" ref="D94:E104" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="D94:E104" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7862C0C7-7CF7-4A2A-BCE9-EB26294D49F2}" name="RNN "/>
@@ -1138,7 +1462,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}" name="Table13681012141516204876" displayName="Table13681012141516204876" ref="A106:B116" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}" name="Table13681012141516204876" displayName="Table13681012141516204876" ref="A106:B116" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A106:B116" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{778EC879-E113-46FA-8A56-E3C18A8105DC}" name="LSTM "/>
@@ -1149,7 +1473,7 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}" name="Table1368101214151620214977" displayName="Table1368101214151620214977" ref="D106:E116" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}" name="Table1368101214151620214977" displayName="Table1368101214151620214977" ref="D106:E116" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="D106:E116" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D8556330-4F13-42F8-B830-6B140E48C4D2}" name="LSTM "/>
@@ -1160,7 +1484,7 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}" name="Table1368101214151620225078" displayName="Table1368101214151620225078" ref="A118:B128" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}" name="Table1368101214151620225078" displayName="Table1368101214151620225078" ref="A118:B128" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A118:B128" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03FF1F67-96C4-464F-97B6-0D155F75DEBC}" name="GRU "/>
@@ -1182,7 +1506,7 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}" name="Table1368101214151620235179" displayName="Table1368101214151620235179" ref="D118:E128" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}" name="Table1368101214151620235179" displayName="Table1368101214151620235179" ref="D118:E128" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="D118:E128" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9E35FFDA-54F3-4E14-BB7A-3E3947EAFA77}" name="GRU "/>
@@ -1193,7 +1517,7 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}" name="Table136810121415162022245280" displayName="Table136810121415162022245280" ref="A131:B141" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}" name="Table136810121415162022245280" displayName="Table136810121415162022245280" ref="A131:B141" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A131:B141" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D0808D68-478C-4270-B555-A3689C96F93B}" name="Vanilla Transformer_x0009_ "/>
@@ -1204,7 +1528,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}" name="Table13681012141516202224255381" displayName="Table13681012141516202224255381" ref="A143:B153" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}" name="Table13681012141516202224255381" displayName="Table13681012141516202224255381" ref="A143:B153" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A143:B153" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{55217093-D61D-4D5A-84F3-5168EB63CD13}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1215,7 +1539,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}" name="Table13681012141516202224265482" displayName="Table13681012141516202224265482" ref="A155:B165" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}" name="Table13681012141516202224265482" displayName="Table13681012141516202224265482" ref="A155:B165" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A155:B165" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{01133B39-0801-4924-913C-56ECA03E76FB}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1226,7 +1550,7 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}" name="Table13681012141516202224275583" displayName="Table13681012141516202224275583" ref="D131:E141" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}" name="Table13681012141516202224275583" displayName="Table13681012141516202224275583" ref="D131:E141" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="D131:E141" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AF99AFC2-D61B-42ED-B36E-7333071CFBF5}" name="Vanilla Transformer_x0009_ "/>
@@ -1237,7 +1561,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}" name="Table1368101214151620222425285684" displayName="Table1368101214151620222425285684" ref="D143:E153" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}" name="Table1368101214151620222425285684" displayName="Table1368101214151620222425285684" ref="D143:E153" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="D143:E153" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D218E1E7-F20F-4163-A5FB-EF55132D2313}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1248,7 +1572,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}" name="Table1368101214151620222426295785" displayName="Table1368101214151620222426295785" ref="D155:E165" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}" name="Table1368101214151620222426295785" displayName="Table1368101214151620222426295785" ref="D155:E165" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="D155:E165" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2CF14DB3-2BE1-40D3-B019-ED4607E793AF}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1259,7 +1583,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}" name="Table130" displayName="Table130" ref="A3:B12" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}" name="Table130" displayName="Table130" ref="A3:B12" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A3:B12" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1AA57D26-0CFB-4BD9-943A-314913378BD6}" name="NaiveBayes"/>
@@ -1270,7 +1594,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}" name="Table1331" displayName="Table1331" ref="A14:B23" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}" name="Table1331" displayName="Table1331" ref="A14:B23" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A14:B23" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{13BFD660-13EF-4451-9494-C9078F81D9FB}" name="LogisticRegression"/>
@@ -1281,7 +1605,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}" name="Table1432" displayName="Table1432" ref="D3:E12" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}" name="Table1432" displayName="Table1432" ref="D3:E12" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="D3:E12" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0B16039F-0BF7-4E05-8553-5D7E16CF1341}" name="NaiveBayes"/>
@@ -1303,7 +1627,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}" name="Table13533" displayName="Table13533" ref="D14:E23" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}" name="Table13533" displayName="Table13533" ref="D14:E23" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="D14:E23" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3AC36DB8-3027-4BE9-8B15-09667BA38AB9}" name="LogisticRegression"/>
@@ -1314,7 +1638,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}" name="Table13634" displayName="Table13634" ref="A25:B34" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}" name="Table13634" displayName="Table13634" ref="A25:B34" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A25:B34" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{93E86EAB-3AD7-4E3C-B65D-F58D5490276D}" name="DecisionTree"/>
@@ -1325,7 +1649,7 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}" name="Table13735" displayName="Table13735" ref="D25:E34" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}" name="Table13735" displayName="Table13735" ref="D25:E34" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="D25:E34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4903B86F-B590-4B52-98E8-FBBDCF1C92C3}" name="DecisionTree"/>
@@ -1336,7 +1660,7 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}" name="Table136836" displayName="Table136836" ref="A36:B45" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}" name="Table136836" displayName="Table136836" ref="A36:B45" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A36:B45" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4EE0F5CF-4EA8-4AF4-865E-C6205A3955CB}" name="RandomForest(2000)"/>
@@ -1347,7 +1671,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}" name="Table137937" displayName="Table137937" ref="D36:E45" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}" name="Table137937" displayName="Table137937" ref="D36:E45" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="D36:E45" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A40B562F-10E2-4219-AEEB-E20D968B0642}" name="RandomForest(2000)"/>
@@ -1358,7 +1682,7 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}" name="Table13681038" displayName="Table13681038" ref="A47:B56" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}" name="Table13681038" displayName="Table13681038" ref="A47:B56" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A47:B56" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D8470A63-6A14-46D8-9C19-BACB3F1A1CE8}" name="KNN(5)"/>
@@ -1369,7 +1693,7 @@
 </file>
 
 <file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}" name="Table13791139" displayName="Table13791139" ref="D47:E56" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}" name="Table13791139" displayName="Table13791139" ref="D47:E56" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="D47:E56" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15B3CEB7-4E52-470B-88D3-CCEE98BE9FC2}" name="KNN(5)"/>
@@ -1380,7 +1704,7 @@
 </file>
 
 <file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}" name="Table1368101240" displayName="Table1368101240" ref="A58:B67" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}" name="Table1368101240" displayName="Table1368101240" ref="A58:B67" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A58:B67" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D82A90A1-D541-477F-AF4A-C15A8D350D99}" name="SWM"/>
@@ -1391,7 +1715,7 @@
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}" name="Table1379111341" displayName="Table1379111341" ref="D58:E67" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}" name="Table1379111341" displayName="Table1379111341" ref="D58:E67" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="D58:E67" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4ABA2D9-9E66-4BF9-8E8D-4BAF867DB0FB}" name="SWM"/>
@@ -1402,7 +1726,7 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}" name="Table136810121442" displayName="Table136810121442" ref="A70:B80" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}" name="Table136810121442" displayName="Table136810121442" ref="A70:B80" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A70:B80" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE3C3463-0380-4014-A47E-47069EEF043A}" name="Autoencoder"/>
@@ -1424,7 +1748,7 @@
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}" name="Table13681012141543" displayName="Table13681012141543" ref="A82:B92" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}" name="Table13681012141543" displayName="Table13681012141543" ref="A82:B92" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A82:B92" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C839A341-09D7-4454-8D17-53848F1D151D}" name="CNN "/>
@@ -1435,7 +1759,7 @@
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}" name="Table1368101214151644" displayName="Table1368101214151644" ref="A94:B104" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}" name="Table1368101214151644" displayName="Table1368101214151644" ref="A94:B104" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A94:B104" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99E2A4BC-C48E-49E4-954F-E31A8EE80D3A}" name="RNN "/>
@@ -1446,7 +1770,7 @@
 </file>
 
 <file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}" name="Table13681012141745" displayName="Table13681012141745" ref="D70:E80" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}" name="Table13681012141745" displayName="Table13681012141745" ref="D70:E80" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="D70:E80" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C5E70CF2-7DEF-47A4-8CBE-C08BE498BB89}" name="Autoencoder"/>
@@ -1457,7 +1781,7 @@
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}" name="Table1368101214151846" displayName="Table1368101214151846" ref="D82:E92" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}" name="Table1368101214151846" displayName="Table1368101214151846" ref="D82:E92" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="D82:E92" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A5341BFB-A190-4EA4-B2E5-D7CFE6614383}" name="CNN "/>
@@ -1468,7 +1792,7 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}" name="Table136810121415161947" displayName="Table136810121415161947" ref="D94:E104" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}" name="Table136810121415161947" displayName="Table136810121415161947" ref="D94:E104" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="D94:E104" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97408F9B-80A4-49F0-9F69-0A632E3502B3}" name="RNN "/>
@@ -1479,7 +1803,7 @@
 </file>
 
 <file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}" name="Table136810121415162048" displayName="Table136810121415162048" ref="A106:B116" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}" name="Table136810121415162048" displayName="Table136810121415162048" ref="A106:B116" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A106:B116" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{68BACBC5-C31F-46B8-82BA-D44E0342017E}" name="LSTM "/>
@@ -1490,7 +1814,7 @@
 </file>
 
 <file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}" name="Table13681012141516202149" displayName="Table13681012141516202149" ref="D106:E116" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}" name="Table13681012141516202149" displayName="Table13681012141516202149" ref="D106:E116" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="D106:E116" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0EE7EC01-3B44-42C7-A39B-C84E068FDE6C}" name="LSTM "/>
@@ -1501,7 +1825,7 @@
 </file>
 
 <file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}" name="Table13681012141516202250" displayName="Table13681012141516202250" ref="A118:B128" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}" name="Table13681012141516202250" displayName="Table13681012141516202250" ref="A118:B128" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A118:B128" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1EC8B20E-5C4F-4CE9-9E6B-A7A4A0ACB2FF}" name="GRU "/>
@@ -1512,7 +1836,7 @@
 </file>
 
 <file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}" name="Table13681012141516202351" displayName="Table13681012141516202351" ref="D118:E128" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}" name="Table13681012141516202351" displayName="Table13681012141516202351" ref="D118:E128" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="D118:E128" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5160D964-7D79-4CBB-8724-13F2B09BB4E4}" name="GRU "/>
@@ -1523,7 +1847,7 @@
 </file>
 
 <file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}" name="Table1368101214151620222452" displayName="Table1368101214151620222452" ref="A131:B141" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}" name="Table1368101214151620222452" displayName="Table1368101214151620222452" ref="A131:B141" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A131:B141" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1C114CB9-D4EF-48EA-99DE-5162DC7E60CD}" name="Vanilla Transformer_x0009_ "/>
@@ -1545,7 +1869,7 @@
 </file>
 
 <file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}" name="Table136810121415162022242553" displayName="Table136810121415162022242553" ref="A143:B153" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}" name="Table136810121415162022242553" displayName="Table136810121415162022242553" ref="A143:B153" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A143:B153" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73D132AC-7763-420A-83D5-1F2884117F7D}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1556,7 +1880,7 @@
 </file>
 
 <file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}" name="Table136810121415162022242654" displayName="Table136810121415162022242654" ref="A155:B165" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}" name="Table136810121415162022242654" displayName="Table136810121415162022242654" ref="A155:B165" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A155:B165" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{40F04E8F-07B2-4D8A-A161-1C5B9C0F2301}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1567,7 +1891,7 @@
 </file>
 
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}" name="Table136810121415162022242755" displayName="Table136810121415162022242755" ref="D131:E141" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}" name="Table136810121415162022242755" displayName="Table136810121415162022242755" ref="D131:E141" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D131:E141" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BDFC94E9-549A-4423-8A01-6ABE9BB96D14}" name="Vanilla Transformer_x0009_ "/>
@@ -1578,7 +1902,7 @@
 </file>
 
 <file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}" name="Table13681012141516202224252856" displayName="Table13681012141516202224252856" ref="D143:E153" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}" name="Table13681012141516202224252856" displayName="Table13681012141516202224252856" ref="D143:E153" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="D143:E153" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{738502E3-8724-4EEA-BAFD-0BD5EC766802}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1589,7 +1913,7 @@
 </file>
 
 <file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}" name="Table13681012141516202224262957" displayName="Table13681012141516202224262957" ref="D155:E165" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}" name="Table13681012141516202224262957" displayName="Table13681012141516202224262957" ref="D155:E165" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="D155:E165" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3BFE888C-9727-4857-86E0-776E4817A04C}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1875,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1884,43 +2208,43 @@
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1928,10 +2252,13 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>732</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1939,10 +2266,13 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>1623</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>1664</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1950,10 +2280,13 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <v>1416</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>1986</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1961,10 +2294,13 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>396</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1972,68 +2308,83 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2041,10 +2392,13 @@
         <v>1</v>
       </c>
       <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2052,10 +2406,13 @@
         <v>2</v>
       </c>
       <c r="B16">
+        <v>2993</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>3614</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2063,10 +2420,13 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2074,10 +2434,13 @@
         <v>4</v>
       </c>
       <c r="B18">
+        <v>904</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
         <v>1129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2085,69 +2448,84 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2155,10 +2533,13 @@
         <v>1</v>
       </c>
       <c r="B26">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2166,10 +2547,13 @@
         <v>2</v>
       </c>
       <c r="B27">
+        <v>2938</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>3610</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2177,10 +2561,13 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2188,10 +2575,13 @@
         <v>4</v>
       </c>
       <c r="B29">
+        <v>765</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>1114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2199,68 +2589,83 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2268,10 +2673,13 @@
         <v>1</v>
       </c>
       <c r="B37">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2279,10 +2687,13 @@
         <v>2</v>
       </c>
       <c r="B38">
+        <v>3001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>3616</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2290,9 +2701,12 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>3</v>
       </c>
     </row>
@@ -2301,10 +2715,13 @@
         <v>4</v>
       </c>
       <c r="B40">
+        <v>846</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
         <v>1093</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2312,68 +2729,83 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2381,10 +2813,13 @@
         <v>1</v>
       </c>
       <c r="B48">
+        <v>478</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>620</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2392,10 +2827,13 @@
         <v>2</v>
       </c>
       <c r="B49">
+        <v>2723</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>3279</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2403,10 +2841,13 @@
         <v>3</v>
       </c>
       <c r="B50">
+        <v>316</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50">
         <v>371</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2414,10 +2855,13 @@
         <v>4</v>
       </c>
       <c r="B51">
+        <v>431</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
         <v>508</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2425,68 +2869,83 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2499,16 +2958,22 @@
       <c r="D59" t="s">
         <v>1</v>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
+        <v>3011</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>3619</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2521,16 +2986,22 @@
       <c r="D61" t="s">
         <v>3</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62">
+        <v>937</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62">
         <v>1159</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2538,86 +3009,98 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B71">
-        <v>304</v>
-      </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
@@ -2626,9 +3109,6 @@
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72">
-        <v>2755</v>
-      </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
@@ -2637,9 +3117,6 @@
       <c r="A73" t="s">
         <v>3</v>
       </c>
-      <c r="B73">
-        <v>613</v>
-      </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +3125,6 @@
       <c r="A74" t="s">
         <v>4</v>
       </c>
-      <c r="B74">
-        <v>255</v>
-      </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
@@ -2659,90 +3133,70 @@
       <c r="A75" t="s">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
-        <v>64</v>
-      </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="B83">
-        <v>142</v>
-      </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
@@ -2751,9 +3205,6 @@
       <c r="A84" t="s">
         <v>2</v>
       </c>
-      <c r="B84">
-        <v>3028</v>
-      </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
@@ -2762,9 +3213,6 @@
       <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B85">
-        <v>340</v>
-      </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
@@ -2773,9 +3221,6 @@
       <c r="A86" t="s">
         <v>4</v>
       </c>
-      <c r="B86">
-        <v>417</v>
-      </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
@@ -2784,90 +3229,69 @@
       <c r="A87" t="s">
         <v>5</v>
       </c>
-      <c r="B87" t="s">
-        <v>52</v>
-      </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>1</v>
       </c>
-      <c r="B95">
-        <v>224</v>
-      </c>
       <c r="D95" t="s">
         <v>1</v>
       </c>
@@ -2876,9 +3300,6 @@
       <c r="A96" t="s">
         <v>2</v>
       </c>
-      <c r="B96">
-        <v>2298</v>
-      </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
@@ -2887,9 +3308,6 @@
       <c r="A97" t="s">
         <v>3</v>
       </c>
-      <c r="B97">
-        <v>1070</v>
-      </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
@@ -2898,9 +3316,6 @@
       <c r="A98" t="s">
         <v>4</v>
       </c>
-      <c r="B98">
-        <v>335</v>
-      </c>
       <c r="D98" t="s">
         <v>4</v>
       </c>
@@ -2909,90 +3324,70 @@
       <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="B99" t="s">
-        <v>58</v>
-      </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>1</v>
       </c>
-      <c r="B107">
-        <v>144</v>
-      </c>
       <c r="D107" t="s">
         <v>1</v>
       </c>
@@ -3001,9 +3396,6 @@
       <c r="A108" t="s">
         <v>2</v>
       </c>
-      <c r="B108">
-        <v>3060</v>
-      </c>
       <c r="D108" t="s">
         <v>2</v>
       </c>
@@ -3012,9 +3404,6 @@
       <c r="A109" t="s">
         <v>3</v>
       </c>
-      <c r="B109">
-        <v>308</v>
-      </c>
       <c r="D109" t="s">
         <v>3</v>
       </c>
@@ -3023,9 +3412,6 @@
       <c r="A110" t="s">
         <v>4</v>
       </c>
-      <c r="B110">
-        <v>415</v>
-      </c>
       <c r="D110" t="s">
         <v>4</v>
       </c>
@@ -3034,90 +3420,70 @@
       <c r="A111" t="s">
         <v>5</v>
       </c>
-      <c r="B111" t="s">
-        <v>72</v>
-      </c>
       <c r="D111" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>1</v>
       </c>
-      <c r="B119">
-        <v>420</v>
-      </c>
       <c r="D119" t="s">
         <v>1</v>
       </c>
@@ -3126,9 +3492,6 @@
       <c r="A120" t="s">
         <v>2</v>
       </c>
-      <c r="B120">
-        <v>938</v>
-      </c>
       <c r="D120" t="s">
         <v>2</v>
       </c>
@@ -3137,9 +3500,6 @@
       <c r="A121" t="s">
         <v>3</v>
       </c>
-      <c r="B121">
-        <v>2430</v>
-      </c>
       <c r="D121" t="s">
         <v>3</v>
       </c>
@@ -3148,9 +3508,6 @@
       <c r="A122" t="s">
         <v>4</v>
       </c>
-      <c r="B122">
-        <v>139</v>
-      </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
@@ -3159,99 +3516,79 @@
       <c r="A123" t="s">
         <v>5</v>
       </c>
-      <c r="B123" t="s">
-        <v>77</v>
-      </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="A130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>1</v>
       </c>
-      <c r="B132">
-        <v>559</v>
-      </c>
       <c r="D132" t="s">
         <v>1</v>
       </c>
@@ -3260,9 +3597,6 @@
       <c r="A133" t="s">
         <v>2</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
       <c r="D133" t="s">
         <v>2</v>
       </c>
@@ -3271,9 +3605,6 @@
       <c r="A134" t="s">
         <v>3</v>
       </c>
-      <c r="B134">
-        <v>3368</v>
-      </c>
       <c r="D134" t="s">
         <v>3</v>
       </c>
@@ -3282,9 +3613,6 @@
       <c r="A135" t="s">
         <v>4</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
@@ -3293,91 +3621,72 @@
       <c r="A136" t="s">
         <v>5</v>
       </c>
-      <c r="B136" t="s">
-        <v>84</v>
-      </c>
       <c r="D136" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="8">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B138" s="4"/>
       <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>1</v>
       </c>
-      <c r="B144">
-        <v>559</v>
-      </c>
       <c r="D144" t="s">
         <v>1</v>
       </c>
@@ -3386,9 +3695,6 @@
       <c r="A145" t="s">
         <v>2</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
       <c r="D145" t="s">
         <v>2</v>
       </c>
@@ -3397,9 +3703,6 @@
       <c r="A146" t="s">
         <v>3</v>
       </c>
-      <c r="B146">
-        <v>3368</v>
-      </c>
       <c r="D146" t="s">
         <v>3</v>
       </c>
@@ -3408,9 +3711,6 @@
       <c r="A147" t="s">
         <v>4</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
       <c r="D147" t="s">
         <v>4</v>
       </c>
@@ -3419,91 +3719,72 @@
       <c r="A148" t="s">
         <v>5</v>
       </c>
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
       <c r="D148" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="8">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B150" s="4"/>
       <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>1</v>
       </c>
-      <c r="B156">
-        <v>477</v>
-      </c>
       <c r="D156" t="s">
         <v>1</v>
       </c>
@@ -3512,9 +3793,6 @@
       <c r="A157" t="s">
         <v>2</v>
       </c>
-      <c r="B157">
-        <v>857</v>
-      </c>
       <c r="D157" t="s">
         <v>2</v>
       </c>
@@ -3523,9 +3801,6 @@
       <c r="A158" t="s">
         <v>3</v>
       </c>
-      <c r="B158">
-        <v>2511</v>
-      </c>
       <c r="D158" t="s">
         <v>3</v>
       </c>
@@ -3534,9 +3809,6 @@
       <c r="A159" t="s">
         <v>4</v>
       </c>
-      <c r="B159">
-        <v>82</v>
-      </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
@@ -3545,67 +3817,51 @@
       <c r="A160" t="s">
         <v>5</v>
       </c>
-      <c r="B160" t="s">
-        <v>91</v>
-      </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B162" s="4"/>
       <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E165" s="3"/>
     </row>
@@ -3655,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C3A80C-C1AD-4A00-A905-B0D955A35E2F}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3668,565 +3924,889 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>458</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>518</v>
+      </c>
       <c r="D5" t="s">
         <v>2</v>
+      </c>
+      <c r="E5">
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>405</v>
+      </c>
       <c r="D6" t="s">
         <v>3</v>
+      </c>
+      <c r="E6">
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>427</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
+      </c>
+      <c r="E7">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>579</v>
+      </c>
       <c r="D15" t="s">
         <v>1</v>
+      </c>
+      <c r="E15">
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>560</v>
+      </c>
       <c r="D16" t="s">
         <v>2</v>
+      </c>
+      <c r="E16">
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>3</v>
       </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
       <c r="D17" t="s">
         <v>3</v>
+      </c>
+      <c r="E17">
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="B18">
+        <v>367</v>
+      </c>
       <c r="D18" t="s">
         <v>4</v>
+      </c>
+      <c r="E18">
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1</v>
       </c>
+      <c r="B26">
+        <v>750</v>
+      </c>
       <c r="D26" t="s">
         <v>1</v>
+      </c>
+      <c r="E26">
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>2</v>
       </c>
+      <c r="B27">
+        <v>485</v>
+      </c>
       <c r="D27" t="s">
         <v>2</v>
+      </c>
+      <c r="E27">
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>3</v>
       </c>
+      <c r="B28">
+        <v>377</v>
+      </c>
       <c r="D28" t="s">
         <v>3</v>
+      </c>
+      <c r="E28">
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>4</v>
       </c>
+      <c r="B29">
+        <v>196</v>
+      </c>
       <c r="D29" t="s">
         <v>4</v>
+      </c>
+      <c r="E29">
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>5</v>
       </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
       <c r="D30" t="s">
         <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>1</v>
       </c>
+      <c r="B37">
+        <v>673</v>
+      </c>
       <c r="D37" t="s">
         <v>1</v>
+      </c>
+      <c r="E37">
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>2</v>
       </c>
+      <c r="B38">
+        <v>578</v>
+      </c>
       <c r="D38" t="s">
         <v>2</v>
+      </c>
+      <c r="E38">
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>3</v>
       </c>
+      <c r="B39">
+        <v>284</v>
+      </c>
       <c r="D39" t="s">
         <v>3</v>
+      </c>
+      <c r="E39">
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>4</v>
       </c>
+      <c r="B40">
+        <v>273</v>
+      </c>
       <c r="D40" t="s">
         <v>4</v>
+      </c>
+      <c r="E40">
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
       <c r="D41" t="s">
         <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>1</v>
       </c>
+      <c r="B48">
+        <v>676</v>
+      </c>
       <c r="D48" t="s">
         <v>1</v>
+      </c>
+      <c r="E48">
+        <v>896</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>2</v>
       </c>
+      <c r="B49">
+        <v>604</v>
+      </c>
       <c r="D49" t="s">
         <v>2</v>
+      </c>
+      <c r="E49">
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>3</v>
       </c>
+      <c r="B50">
+        <v>319</v>
+      </c>
       <c r="D50" t="s">
         <v>3</v>
+      </c>
+      <c r="E50">
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>4</v>
       </c>
+      <c r="B51">
+        <v>209</v>
+      </c>
       <c r="D51" t="s">
         <v>4</v>
+      </c>
+      <c r="E51">
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
       <c r="D52" t="s">
         <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>1</v>
       </c>
+      <c r="B59">
+        <v>537</v>
+      </c>
       <c r="D59" t="s">
         <v>1</v>
+      </c>
+      <c r="E59">
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>2</v>
       </c>
+      <c r="B60">
+        <v>564</v>
+      </c>
       <c r="D60" t="s">
         <v>2</v>
+      </c>
+      <c r="E60">
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>3</v>
       </c>
+      <c r="B61">
+        <v>298</v>
+      </c>
       <c r="D61" t="s">
         <v>3</v>
+      </c>
+      <c r="E61">
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>4</v>
       </c>
+      <c r="B62">
+        <v>409</v>
+      </c>
       <c r="D62" t="s">
         <v>4</v>
+      </c>
+      <c r="E62">
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>5</v>
       </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
       <c r="D63" t="s">
         <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4271,58 +4851,58 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4367,58 +4947,58 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4463,58 +5043,58 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4559,58 +5139,58 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4655,67 +5235,67 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="A130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4760,60 +5340,60 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B138" s="4"/>
       <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4858,60 +5438,60 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B150" s="4"/>
       <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4956,45 +5536,45 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B162" s="4"/>
       <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E165" s="3"/>
     </row>
@@ -5044,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C6061A-A3B3-45CA-9ABF-E0DB44EA658D}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5057,565 +5637,889 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>1536</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2325</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>1637</v>
+      </c>
       <c r="D5" t="s">
         <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1724</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>1383</v>
+      </c>
       <c r="D6" t="s">
         <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1885</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>1580</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>1904</v>
+      </c>
       <c r="D15" t="s">
         <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2468</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>1938</v>
+      </c>
       <c r="D16" t="s">
         <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2089</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>3</v>
       </c>
+      <c r="B17">
+        <v>1158</v>
+      </c>
       <c r="D17" t="s">
         <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1567</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="B18">
+        <v>1136</v>
+      </c>
       <c r="D18" t="s">
         <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1157</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>182</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1</v>
       </c>
+      <c r="B26">
+        <v>1978</v>
+      </c>
       <c r="D26" t="s">
         <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2909</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>2</v>
       </c>
+      <c r="B27">
+        <v>2276</v>
+      </c>
       <c r="D27" t="s">
         <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2043</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>3</v>
       </c>
+      <c r="B28">
+        <v>820</v>
+      </c>
       <c r="D28" t="s">
         <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1613</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>4</v>
       </c>
+      <c r="B29">
+        <v>1062</v>
+      </c>
       <c r="D29" t="s">
         <v>4</v>
+      </c>
+      <c r="E29">
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>5</v>
       </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
       <c r="D30" t="s">
         <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>1</v>
       </c>
+      <c r="B37">
+        <v>2304</v>
+      </c>
       <c r="D37" t="s">
         <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2969</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>2</v>
       </c>
+      <c r="B38">
+        <v>2173</v>
+      </c>
       <c r="D38" t="s">
         <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2209</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>3</v>
       </c>
+      <c r="B39">
+        <v>923</v>
+      </c>
       <c r="D39" t="s">
         <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1447</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>4</v>
       </c>
+      <c r="B40">
+        <v>736</v>
+      </c>
       <c r="D40" t="s">
         <v>4</v>
+      </c>
+      <c r="E40">
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
       <c r="D41" t="s">
         <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>1</v>
       </c>
+      <c r="B48">
+        <v>2920</v>
+      </c>
       <c r="D48" t="s">
         <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3399</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>2</v>
       </c>
+      <c r="B49">
+        <v>2530</v>
+      </c>
       <c r="D49" t="s">
         <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3095</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>3</v>
       </c>
+      <c r="B50">
+        <v>490</v>
+      </c>
       <c r="D50" t="s">
         <v>3</v>
+      </c>
+      <c r="E50">
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>4</v>
       </c>
+      <c r="B51">
+        <v>196</v>
+      </c>
       <c r="D51" t="s">
         <v>4</v>
+      </c>
+      <c r="E51">
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
       <c r="D52" t="s">
         <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>1</v>
       </c>
+      <c r="B59">
+        <v>1803</v>
+      </c>
       <c r="D59" t="s">
         <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2721</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>2</v>
       </c>
+      <c r="B60">
+        <v>2015</v>
+      </c>
       <c r="D60" t="s">
         <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1877</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>3</v>
       </c>
+      <c r="B61">
+        <v>1081</v>
+      </c>
       <c r="D61" t="s">
         <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1779</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>4</v>
       </c>
+      <c r="B62">
+        <v>1237</v>
+      </c>
       <c r="D62" t="s">
         <v>4</v>
+      </c>
+      <c r="E62">
+        <v>904</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>5</v>
       </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
       <c r="D63" t="s">
         <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5660,58 +6564,58 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5756,58 +6660,58 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5852,58 +6756,58 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5948,58 +6852,58 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6044,67 +6948,67 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="A130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6149,60 +7053,60 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B138" s="4"/>
       <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6247,60 +7151,60 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B150" s="4"/>
       <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6345,45 +7249,45 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B162" s="4"/>
       <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E165" s="3"/>
     </row>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artun\Desktop\Dosyalar\github_repos\EffiTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AF268E-CFF1-4BA0-A116-CDFA619EDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443897A-0B7C-4084-9A49-BFF94D69C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ham optimize veri seti" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="427">
   <si>
     <t>NaiveBayes</t>
   </si>
@@ -645,6 +645,669 @@
   </si>
   <si>
     <t>0.3684</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.9183</t>
+  </si>
+  <si>
+    <t>0.8797</t>
+  </si>
+  <si>
+    <t>0.7489</t>
+  </si>
+  <si>
+    <t>0.8090</t>
+  </si>
+  <si>
+    <t>0.0817</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.9267</t>
+  </si>
+  <si>
+    <t>0.9212</t>
+  </si>
+  <si>
+    <t>0.7467</t>
+  </si>
+  <si>
+    <t>0.8248</t>
+  </si>
+  <si>
+    <t>0.0733</t>
+  </si>
+  <si>
+    <t>0.9305</t>
+  </si>
+  <si>
+    <t>0.9107</t>
+  </si>
+  <si>
+    <t>0.7753</t>
+  </si>
+  <si>
+    <t>0.8376</t>
+  </si>
+  <si>
+    <t>0.0695</t>
+  </si>
+  <si>
+    <t>0.9661</t>
+  </si>
+  <si>
+    <t>0.9330</t>
+  </si>
+  <si>
+    <t>0.9196</t>
+  </si>
+  <si>
+    <t>0.9262</t>
+  </si>
+  <si>
+    <t>0.0339</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.9353</t>
+  </si>
+  <si>
+    <t>0.9208</t>
+  </si>
+  <si>
+    <t>0.7847</t>
+  </si>
+  <si>
+    <t>0.8473</t>
+  </si>
+  <si>
+    <t>0.0647</t>
+  </si>
+  <si>
+    <t>0.9484</t>
+  </si>
+  <si>
+    <t>0.9411</t>
+  </si>
+  <si>
+    <t>0.8262</t>
+  </si>
+  <si>
+    <t>0.8799</t>
+  </si>
+  <si>
+    <t>0.0516</t>
+  </si>
+  <si>
+    <t>0.8375</t>
+  </si>
+  <si>
+    <t>0.8897</t>
+  </si>
+  <si>
+    <t>0.7760</t>
+  </si>
+  <si>
+    <t>0.8290</t>
+  </si>
+  <si>
+    <t>0.1625</t>
+  </si>
+  <si>
+    <t>0.8619</t>
+  </si>
+  <si>
+    <t>0.9111</t>
+  </si>
+  <si>
+    <t>0.8066</t>
+  </si>
+  <si>
+    <t>0.8557</t>
+  </si>
+  <si>
+    <t>0.1381</t>
+  </si>
+  <si>
+    <t>0.9361</t>
+  </si>
+  <si>
+    <t>0.7884</t>
+  </si>
+  <si>
+    <t>0.8496</t>
+  </si>
+  <si>
+    <t>0.0639</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.9666</t>
+  </si>
+  <si>
+    <t>0.9629</t>
+  </si>
+  <si>
+    <t>0.9240</t>
+  </si>
+  <si>
+    <t>0.0334</t>
+  </si>
+  <si>
+    <t>0.8704</t>
+  </si>
+  <si>
+    <t>0.9173</t>
+  </si>
+  <si>
+    <t>0.8179</t>
+  </si>
+  <si>
+    <t>0.8647</t>
+  </si>
+  <si>
+    <t>0.1296</t>
+  </si>
+  <si>
+    <t>0.7920</t>
+  </si>
+  <si>
+    <t>0.7784</t>
+  </si>
+  <si>
+    <t>0.8251</t>
+  </si>
+  <si>
+    <t>0.8011</t>
+  </si>
+  <si>
+    <t>0.2080</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50</t>
+  </si>
+  <si>
+    <t>0.9079</t>
+  </si>
+  <si>
+    <t>0.9213</t>
+  </si>
+  <si>
+    <t>0.8951</t>
+  </si>
+  <si>
+    <t>0.9080</t>
+  </si>
+  <si>
+    <t>0.0921</t>
+  </si>
+  <si>
+    <t>0.8787</t>
+  </si>
+  <si>
+    <t>0.9525</t>
+  </si>
+  <si>
+    <t>0.8005</t>
+  </si>
+  <si>
+    <t>0.8699</t>
+  </si>
+  <si>
+    <t>0.1213</t>
+  </si>
+  <si>
+    <t>0.8291</t>
+  </si>
+  <si>
+    <t>0.8874</t>
+  </si>
+  <si>
+    <t>0.7589</t>
+  </si>
+  <si>
+    <t>0.8181</t>
+  </si>
+  <si>
+    <t>0.1709</t>
+  </si>
+  <si>
+    <t>0.9337</t>
+  </si>
+  <si>
+    <t>0.9514</t>
+  </si>
+  <si>
+    <t>0.9159</t>
+  </si>
+  <si>
+    <t>0.9333</t>
+  </si>
+  <si>
+    <t>0.0663</t>
+  </si>
+  <si>
+    <t>0.9100</t>
+  </si>
+  <si>
+    <t>0.9324</t>
+  </si>
+  <si>
+    <t>0.8819</t>
+  </si>
+  <si>
+    <t>0.9064</t>
+  </si>
+  <si>
+    <t>0.0900</t>
+  </si>
+  <si>
+    <t>0.8803</t>
+  </si>
+  <si>
+    <t>0.9405</t>
+  </si>
+  <si>
+    <t>0.8089</t>
+  </si>
+  <si>
+    <t>0.8697</t>
+  </si>
+  <si>
+    <t>0.1197</t>
+  </si>
+  <si>
+    <t>0.6486</t>
+  </si>
+  <si>
+    <t>0.3361</t>
+  </si>
+  <si>
+    <t>0.5330</t>
+  </si>
+  <si>
+    <t>0.4123</t>
+  </si>
+  <si>
+    <t>0.3514</t>
+  </si>
+  <si>
+    <t>0.9229</t>
+  </si>
+  <si>
+    <t>0.9356</t>
+  </si>
+  <si>
+    <t>0.9067</t>
+  </si>
+  <si>
+    <t>0.0771</t>
+  </si>
+  <si>
+    <t>0.9209</t>
+  </si>
+  <si>
+    <t>0.7232</t>
+  </si>
+  <si>
+    <t>0.4110</t>
+  </si>
+  <si>
+    <t>0.4843</t>
+  </si>
+  <si>
+    <t>0.2768</t>
+  </si>
+  <si>
+    <t>0.9051</t>
+  </si>
+  <si>
+    <t>0.9280</t>
+  </si>
+  <si>
+    <t>0.8764</t>
+  </si>
+  <si>
+    <t>0.9014</t>
+  </si>
+  <si>
+    <t>0.0949</t>
+  </si>
+  <si>
+    <t>0.5541</t>
+  </si>
+  <si>
+    <t>0.5351</t>
+  </si>
+  <si>
+    <t>0.9235</t>
+  </si>
+  <si>
+    <t>0.4459</t>
+  </si>
+  <si>
+    <t>0.9253</t>
+  </si>
+  <si>
+    <t>0.9555</t>
+  </si>
+  <si>
+    <t>0.8902</t>
+  </si>
+  <si>
+    <t>0.9217</t>
+  </si>
+  <si>
+    <t>0.0747</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.9704</t>
+  </si>
+  <si>
+    <t>0.9828</t>
+  </si>
+  <si>
+    <t>0.9568</t>
+  </si>
+  <si>
+    <t>0.9696</t>
+  </si>
+  <si>
+    <t>0.0296</t>
+  </si>
+  <si>
+    <t>0.5914</t>
+  </si>
+  <si>
+    <t>0.5605</t>
+  </si>
+  <si>
+    <t>0.8959</t>
+  </si>
+  <si>
+    <t>0.6896</t>
+  </si>
+  <si>
+    <t>0.4086</t>
+  </si>
+  <si>
+    <t>0.4941</t>
+  </si>
+  <si>
+    <t>0.6614</t>
+  </si>
+  <si>
+    <t>0.5059</t>
+  </si>
+  <si>
+    <t>0.4950</t>
+  </si>
+  <si>
+    <t>0.5050</t>
+  </si>
+  <si>
+    <t>0.6622</t>
+  </si>
+  <si>
+    <t>0.9153</t>
+  </si>
+  <si>
+    <t>0.9481</t>
+  </si>
+  <si>
+    <t>0.8769</t>
+  </si>
+  <si>
+    <t>0.0847</t>
+  </si>
+  <si>
+    <t>0.9523</t>
+  </si>
+  <si>
+    <t>0.9738</t>
+  </si>
+  <si>
+    <t>0.9286</t>
+  </si>
+  <si>
+    <t>0.9507</t>
+  </si>
+  <si>
+    <t>0.0477</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.2299</t>
+  </si>
+  <si>
+    <t>0.3739</t>
+  </si>
+  <si>
+    <t>0.7701</t>
+  </si>
+  <si>
+    <t>0.4871</t>
+  </si>
+  <si>
+    <t>0.2235</t>
+  </si>
+  <si>
+    <t>0.4972</t>
+  </si>
+  <si>
+    <t>0.3084</t>
+  </si>
+  <si>
+    <t>0.5129</t>
+  </si>
+  <si>
+    <t>0.6190</t>
+  </si>
+  <si>
+    <t>0.5777</t>
+  </si>
+  <si>
+    <t>0.9268</t>
+  </si>
+  <si>
+    <t>0.7117</t>
+  </si>
+  <si>
+    <t>0.3810</t>
+  </si>
+  <si>
+    <t>0.2398</t>
+  </si>
+  <si>
+    <t>0.3868</t>
+  </si>
+  <si>
+    <t>0.7602</t>
+  </si>
+  <si>
+    <t>0.5248</t>
+  </si>
+  <si>
+    <t>0.2393</t>
+  </si>
+  <si>
+    <t>0.4506</t>
+  </si>
+  <si>
+    <t>0.3126</t>
+  </si>
+  <si>
+    <t>0.4752</t>
+  </si>
+  <si>
+    <t>0.7563</t>
+  </si>
+  <si>
+    <t>0.4777</t>
+  </si>
+  <si>
+    <t>0.5771</t>
+  </si>
+  <si>
+    <t>0.5227</t>
+  </si>
+  <si>
+    <t>0.2437</t>
+  </si>
+  <si>
+    <t>0.6262</t>
+  </si>
+  <si>
+    <t>0.5835</t>
+  </si>
+  <si>
+    <t>0.9202</t>
+  </si>
+  <si>
+    <t>0.7142</t>
+  </si>
+  <si>
+    <t>0.6679</t>
+  </si>
+  <si>
+    <t>0.4986</t>
+  </si>
+  <si>
+    <t>0.6380</t>
+  </si>
+  <si>
+    <t>0.5883</t>
+  </si>
+  <si>
+    <t>0.9506</t>
+  </si>
+  <si>
+    <t>0.7268</t>
+  </si>
+  <si>
+    <t>0.3620</t>
+  </si>
+  <si>
+    <t>0.4982</t>
+  </si>
+  <si>
+    <t>0.6651</t>
+  </si>
+  <si>
+    <t>0.5018</t>
+  </si>
+  <si>
+    <t>0.9602</t>
+  </si>
+  <si>
+    <t>0.6588</t>
+  </si>
+  <si>
+    <t>0.5009</t>
+  </si>
+  <si>
+    <t>0.4996</t>
+  </si>
+  <si>
+    <t>0.9956</t>
+  </si>
+  <si>
+    <t>0.6653</t>
+  </si>
+  <si>
+    <t>0.4991</t>
+  </si>
+  <si>
+    <t>0.7531</t>
+  </si>
+  <si>
+    <t>0.9019</t>
+  </si>
+  <si>
+    <t>0.2469</t>
+  </si>
+  <si>
+    <t>0.4999</t>
+  </si>
+  <si>
+    <t>0.6666</t>
+  </si>
+  <si>
+    <t>0.5001</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>0.6667</t>
+  </si>
+  <si>
+    <t>0.6821</t>
+  </si>
+  <si>
+    <t>0.6214</t>
+  </si>
+  <si>
+    <t>0.9154</t>
+  </si>
+  <si>
+    <t>0.7403</t>
+  </si>
+  <si>
+    <t>0.3179</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5072</t>
+  </si>
+  <si>
+    <t>0.5048</t>
+  </si>
+  <si>
+    <t>0.7502</t>
+  </si>
+  <si>
+    <t>0.6035</t>
+  </si>
+  <si>
+    <t>0.4928</t>
+  </si>
+  <si>
+    <t>0.4990</t>
+  </si>
+  <si>
+    <t>0.4993</t>
+  </si>
+  <si>
+    <t>0.7099</t>
+  </si>
+  <si>
+    <t>0.5863</t>
+  </si>
+  <si>
+    <t>0.5010</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1773,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{97A0BD67-981C-47CD-BEC7-BB9B90FE9A78}" name="Table1368101214151619" displayName="Table1368101214151619" ref="D94:E104" totalsRowShown="0" headerRowDxfId="66">
-  <autoFilter ref="D94:E104" xr:uid="{97A0BD67-981C-47CD-BEC7-BB9B90FE9A78}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{97A0BD67-981C-47CD-BEC7-BB9B90FE9A78}" name="Table1368101214151619" displayName="Table1368101214151619" ref="D94:E105" totalsRowShown="0" headerRowDxfId="66">
+  <autoFilter ref="D94:E105" xr:uid="{97A0BD67-981C-47CD-BEC7-BB9B90FE9A78}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{09000A01-210C-4E7C-B847-1C6BE272A97C}" name="RNN "/>
     <tableColumn id="2" xr3:uid="{C464E133-80E2-40B2-8B3F-C03D631ED179}" name="Sonuçlar"/>
@@ -1429,7 +2092,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}" name="Table1368101214174573" displayName="Table1368101214174573" ref="D70:E80" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}" name="Table1368101214174573" displayName="Table1368101214174573" ref="D70:E80" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="D70:E80" xr:uid="{61D84D2E-2C4F-44AC-8135-77BACDA00EF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9C83E6EB-85E0-4895-92FD-0D965C876DBC}" name="Autoencoder"/>
@@ -1440,7 +2103,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}" name="Table136810121415184674" displayName="Table136810121415184674" ref="D82:E92" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}" name="Table136810121415184674" displayName="Table136810121415184674" ref="D82:E92" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="D82:E92" xr:uid="{F73FFE76-0211-4307-9704-C62CE7361608}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97EFC241-0805-4353-8F99-814F3D91ACCA}" name="CNN "/>
@@ -1451,7 +2114,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}" name="Table13681012141516194775" displayName="Table13681012141516194775" ref="D94:E104" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}" name="Table13681012141516194775" displayName="Table13681012141516194775" ref="D94:E104" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="D94:E104" xr:uid="{F79FC711-AFBF-4122-8E12-223B94F9F19E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7862C0C7-7CF7-4A2A-BCE9-EB26294D49F2}" name="RNN "/>
@@ -1462,7 +2125,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}" name="Table13681012141516204876" displayName="Table13681012141516204876" ref="A106:B116" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}" name="Table13681012141516204876" displayName="Table13681012141516204876" ref="A106:B116" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A106:B116" xr:uid="{F4633344-28C8-432E-9C52-E25830596605}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{778EC879-E113-46FA-8A56-E3C18A8105DC}" name="LSTM "/>
@@ -1473,7 +2136,7 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}" name="Table1368101214151620214977" displayName="Table1368101214151620214977" ref="D106:E116" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}" name="Table1368101214151620214977" displayName="Table1368101214151620214977" ref="D106:E116" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="D106:E116" xr:uid="{54FD375E-A76E-4A54-8F57-8E06C60F6F79}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D8556330-4F13-42F8-B830-6B140E48C4D2}" name="LSTM "/>
@@ -1484,7 +2147,7 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}" name="Table1368101214151620225078" displayName="Table1368101214151620225078" ref="A118:B128" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}" name="Table1368101214151620225078" displayName="Table1368101214151620225078" ref="A118:B128" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A118:B128" xr:uid="{8F6496B0-B45A-49A7-8CD7-B60C7BE21907}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03FF1F67-96C4-464F-97B6-0D155F75DEBC}" name="GRU "/>
@@ -1506,7 +2169,7 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}" name="Table1368101214151620235179" displayName="Table1368101214151620235179" ref="D118:E128" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}" name="Table1368101214151620235179" displayName="Table1368101214151620235179" ref="D118:E128" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="D118:E128" xr:uid="{7301D693-FFBD-4B84-8DE4-63B7332E02DA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9E35FFDA-54F3-4E14-BB7A-3E3947EAFA77}" name="GRU "/>
@@ -1517,7 +2180,7 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}" name="Table136810121415162022245280" displayName="Table136810121415162022245280" ref="A131:B141" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}" name="Table136810121415162022245280" displayName="Table136810121415162022245280" ref="A131:B141" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A131:B141" xr:uid="{F01BB3FF-7E32-4E81-BECC-B8226C589A6F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D0808D68-478C-4270-B555-A3689C96F93B}" name="Vanilla Transformer_x0009_ "/>
@@ -1528,7 +2191,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}" name="Table13681012141516202224255381" displayName="Table13681012141516202224255381" ref="A143:B153" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}" name="Table13681012141516202224255381" displayName="Table13681012141516202224255381" ref="A143:B153" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A143:B153" xr:uid="{274FBB7C-14E4-429B-A675-DEA6A631C7D2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{55217093-D61D-4D5A-84F3-5168EB63CD13}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1539,7 +2202,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}" name="Table13681012141516202224265482" displayName="Table13681012141516202224265482" ref="A155:B165" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}" name="Table13681012141516202224265482" displayName="Table13681012141516202224265482" ref="A155:B165" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A155:B165" xr:uid="{7FB1EF74-FD0D-46FB-BACC-CF40B91EAF96}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{01133B39-0801-4924-913C-56ECA03E76FB}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1550,7 +2213,7 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}" name="Table13681012141516202224275583" displayName="Table13681012141516202224275583" ref="D131:E141" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}" name="Table13681012141516202224275583" displayName="Table13681012141516202224275583" ref="D131:E141" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="D131:E141" xr:uid="{E4272147-ED38-4A0A-AFC3-4AE893ED72D1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AF99AFC2-D61B-42ED-B36E-7333071CFBF5}" name="Vanilla Transformer_x0009_ "/>
@@ -1561,7 +2224,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}" name="Table1368101214151620222425285684" displayName="Table1368101214151620222425285684" ref="D143:E153" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}" name="Table1368101214151620222425285684" displayName="Table1368101214151620222425285684" ref="D143:E153" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="D143:E153" xr:uid="{3D98BE48-30EA-4BF5-91DB-3359F5779C98}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D218E1E7-F20F-4163-A5FB-EF55132D2313}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1572,7 +2235,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}" name="Table1368101214151620222426295785" displayName="Table1368101214151620222426295785" ref="D155:E165" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}" name="Table1368101214151620222426295785" displayName="Table1368101214151620222426295785" ref="D155:E165" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="D155:E165" xr:uid="{7A57AE26-B61F-4D09-8902-AAAECBBB919E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2CF14DB3-2BE1-40D3-B019-ED4607E793AF}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1583,7 +2246,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}" name="Table130" displayName="Table130" ref="A3:B12" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}" name="Table130" displayName="Table130" ref="A3:B12" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A3:B12" xr:uid="{24FC2EDF-4E30-4A3E-87CF-383893E26B1C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1AA57D26-0CFB-4BD9-943A-314913378BD6}" name="NaiveBayes"/>
@@ -1594,7 +2257,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}" name="Table1331" displayName="Table1331" ref="A14:B23" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}" name="Table1331" displayName="Table1331" ref="A14:B23" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A14:B23" xr:uid="{10EFC18F-8CBB-4086-A002-DA72CE476BB7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{13BFD660-13EF-4451-9494-C9078F81D9FB}" name="LogisticRegression"/>
@@ -1605,7 +2268,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}" name="Table1432" displayName="Table1432" ref="D3:E12" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}" name="Table1432" displayName="Table1432" ref="D3:E12" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="D3:E12" xr:uid="{D5479A85-B9B3-48C2-8F28-48540E7EC8FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0B16039F-0BF7-4E05-8553-5D7E16CF1341}" name="NaiveBayes"/>
@@ -1627,7 +2290,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}" name="Table13533" displayName="Table13533" ref="D14:E23" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}" name="Table13533" displayName="Table13533" ref="D14:E23" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="D14:E23" xr:uid="{91D75118-E87F-4F83-9671-C212A53F3A7C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3AC36DB8-3027-4BE9-8B15-09667BA38AB9}" name="LogisticRegression"/>
@@ -1638,7 +2301,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}" name="Table13634" displayName="Table13634" ref="A25:B34" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}" name="Table13634" displayName="Table13634" ref="A25:B34" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A25:B34" xr:uid="{360E05A3-47E6-42AE-BAF4-CA885AA1FCB5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{93E86EAB-3AD7-4E3C-B65D-F58D5490276D}" name="DecisionTree"/>
@@ -1649,7 +2312,7 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}" name="Table13735" displayName="Table13735" ref="D25:E34" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}" name="Table13735" displayName="Table13735" ref="D25:E34" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="D25:E34" xr:uid="{83B907F0-F677-431D-9BDD-0DE2224753AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4903B86F-B590-4B52-98E8-FBBDCF1C92C3}" name="DecisionTree"/>
@@ -1660,7 +2323,7 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}" name="Table136836" displayName="Table136836" ref="A36:B45" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}" name="Table136836" displayName="Table136836" ref="A36:B45" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A36:B45" xr:uid="{5FC11042-C081-4911-8CCE-1B805A5687CA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4EE0F5CF-4EA8-4AF4-865E-C6205A3955CB}" name="RandomForest(2000)"/>
@@ -1671,7 +2334,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}" name="Table137937" displayName="Table137937" ref="D36:E45" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}" name="Table137937" displayName="Table137937" ref="D36:E45" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="D36:E45" xr:uid="{55EFBDDD-80DB-4E99-A0F5-3ABE38B56F0A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A40B562F-10E2-4219-AEEB-E20D968B0642}" name="RandomForest(2000)"/>
@@ -1682,7 +2345,7 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}" name="Table13681038" displayName="Table13681038" ref="A47:B56" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}" name="Table13681038" displayName="Table13681038" ref="A47:B56" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A47:B56" xr:uid="{5A70FF69-DEA6-4650-A5F9-A677ABA1884C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D8470A63-6A14-46D8-9C19-BACB3F1A1CE8}" name="KNN(5)"/>
@@ -1693,7 +2356,7 @@
 </file>
 
 <file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}" name="Table13791139" displayName="Table13791139" ref="D47:E56" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}" name="Table13791139" displayName="Table13791139" ref="D47:E56" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="D47:E56" xr:uid="{A2685125-908E-4C9F-A223-DF017026E397}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15B3CEB7-4E52-470B-88D3-CCEE98BE9FC2}" name="KNN(5)"/>
@@ -1704,7 +2367,7 @@
 </file>
 
 <file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}" name="Table1368101240" displayName="Table1368101240" ref="A58:B67" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}" name="Table1368101240" displayName="Table1368101240" ref="A58:B67" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A58:B67" xr:uid="{513FFE24-6123-4354-B65D-B75745EC3FF0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D82A90A1-D541-477F-AF4A-C15A8D350D99}" name="SWM"/>
@@ -1715,7 +2378,7 @@
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}" name="Table1379111341" displayName="Table1379111341" ref="D58:E67" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}" name="Table1379111341" displayName="Table1379111341" ref="D58:E67" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="D58:E67" xr:uid="{0168EC16-3213-47AD-BE2F-095A92E328AC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4ABA2D9-9E66-4BF9-8E8D-4BAF867DB0FB}" name="SWM"/>
@@ -1726,7 +2389,7 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}" name="Table136810121442" displayName="Table136810121442" ref="A70:B80" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}" name="Table136810121442" displayName="Table136810121442" ref="A70:B80" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A70:B80" xr:uid="{4D8944A0-0346-4D0E-A58C-D2F3CAAC0A4B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE3C3463-0380-4014-A47E-47069EEF043A}" name="Autoencoder"/>
@@ -1748,7 +2411,7 @@
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}" name="Table13681012141543" displayName="Table13681012141543" ref="A82:B92" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}" name="Table13681012141543" displayName="Table13681012141543" ref="A82:B92" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A82:B92" xr:uid="{7209F693-0FF8-4949-B70D-C77B0A6FE139}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C839A341-09D7-4454-8D17-53848F1D151D}" name="CNN "/>
@@ -1759,7 +2422,7 @@
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}" name="Table1368101214151644" displayName="Table1368101214151644" ref="A94:B104" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}" name="Table1368101214151644" displayName="Table1368101214151644" ref="A94:B104" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A94:B104" xr:uid="{AE8D7D0A-884E-4C4C-B55A-5D969B1ABD57}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99E2A4BC-C48E-49E4-954F-E31A8EE80D3A}" name="RNN "/>
@@ -1770,7 +2433,7 @@
 </file>
 
 <file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}" name="Table13681012141745" displayName="Table13681012141745" ref="D70:E80" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}" name="Table13681012141745" displayName="Table13681012141745" ref="D70:E80" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="D70:E80" xr:uid="{9D80E0A8-81EF-4D46-A0DD-790D67EE24F8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C5E70CF2-7DEF-47A4-8CBE-C08BE498BB89}" name="Autoencoder"/>
@@ -1781,7 +2444,7 @@
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}" name="Table1368101214151846" displayName="Table1368101214151846" ref="D82:E92" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}" name="Table1368101214151846" displayName="Table1368101214151846" ref="D82:E92" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="D82:E92" xr:uid="{13AC1A59-80BE-4A08-99EC-93544D4DAFF5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A5341BFB-A190-4EA4-B2E5-D7CFE6614383}" name="CNN "/>
@@ -1792,7 +2455,7 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}" name="Table136810121415161947" displayName="Table136810121415161947" ref="D94:E104" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}" name="Table136810121415161947" displayName="Table136810121415161947" ref="D94:E104" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="D94:E104" xr:uid="{9D37604C-8211-4761-8D34-2192E2A93B82}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97408F9B-80A4-49F0-9F69-0A632E3502B3}" name="RNN "/>
@@ -1803,7 +2466,7 @@
 </file>
 
 <file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}" name="Table136810121415162048" displayName="Table136810121415162048" ref="A106:B116" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}" name="Table136810121415162048" displayName="Table136810121415162048" ref="A106:B116" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A106:B116" xr:uid="{0FA43E5B-B570-47FE-A5D5-5231EAE5558E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{68BACBC5-C31F-46B8-82BA-D44E0342017E}" name="LSTM "/>
@@ -1814,7 +2477,7 @@
 </file>
 
 <file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}" name="Table13681012141516202149" displayName="Table13681012141516202149" ref="D106:E116" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}" name="Table13681012141516202149" displayName="Table13681012141516202149" ref="D106:E116" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="D106:E116" xr:uid="{2605A459-24A8-4195-A166-7D3CE8D79554}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0EE7EC01-3B44-42C7-A39B-C84E068FDE6C}" name="LSTM "/>
@@ -1825,7 +2488,7 @@
 </file>
 
 <file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}" name="Table13681012141516202250" displayName="Table13681012141516202250" ref="A118:B128" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}" name="Table13681012141516202250" displayName="Table13681012141516202250" ref="A118:B128" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A118:B128" xr:uid="{2A94FF97-2873-425F-8A6E-ADB523A2BAF4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1EC8B20E-5C4F-4CE9-9E6B-A7A4A0ACB2FF}" name="GRU "/>
@@ -1836,7 +2499,7 @@
 </file>
 
 <file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}" name="Table13681012141516202351" displayName="Table13681012141516202351" ref="D118:E128" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}" name="Table13681012141516202351" displayName="Table13681012141516202351" ref="D118:E128" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D118:E128" xr:uid="{6424B20F-E9AF-478F-8C27-A10B5A401447}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5160D964-7D79-4CBB-8724-13F2B09BB4E4}" name="GRU "/>
@@ -1847,7 +2510,7 @@
 </file>
 
 <file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}" name="Table1368101214151620222452" displayName="Table1368101214151620222452" ref="A131:B141" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}" name="Table1368101214151620222452" displayName="Table1368101214151620222452" ref="A131:B141" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A131:B141" xr:uid="{237597AA-FB98-434D-9FE3-336F363988A4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1C114CB9-D4EF-48EA-99DE-5162DC7E60CD}" name="Vanilla Transformer_x0009_ "/>
@@ -1869,7 +2532,7 @@
 </file>
 
 <file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}" name="Table136810121415162022242553" displayName="Table136810121415162022242553" ref="A143:B153" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}" name="Table136810121415162022242553" displayName="Table136810121415162022242553" ref="A143:B153" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A143:B153" xr:uid="{DC8A3E7B-BFBF-4C6F-97B6-EF9C97792F58}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73D132AC-7763-420A-83D5-1F2884117F7D}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1880,7 +2543,7 @@
 </file>
 
 <file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}" name="Table136810121415162022242654" displayName="Table136810121415162022242654" ref="A155:B165" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}" name="Table136810121415162022242654" displayName="Table136810121415162022242654" ref="A155:B165" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A155:B165" xr:uid="{FF6C7045-66D4-478F-BEAC-1E98E808846A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{40F04E8F-07B2-4D8A-A161-1C5B9C0F2301}" name="Temporal Fusion Transformers (TFT)"/>
@@ -1891,7 +2554,7 @@
 </file>
 
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}" name="Table136810121415162022242755" displayName="Table136810121415162022242755" ref="D131:E141" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}" name="Table136810121415162022242755" displayName="Table136810121415162022242755" ref="D131:E141" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="D131:E141" xr:uid="{EF6D6A4F-B9B5-4FE9-A4EF-A0D61991CAAA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BDFC94E9-549A-4423-8A01-6ABE9BB96D14}" name="Vanilla Transformer_x0009_ "/>
@@ -1902,7 +2565,7 @@
 </file>
 
 <file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}" name="Table13681012141516202224252856" displayName="Table13681012141516202224252856" ref="D143:E153" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}" name="Table13681012141516202224252856" displayName="Table13681012141516202224252856" ref="D143:E153" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D143:E153" xr:uid="{C56DD6A4-2A46-42E3-92AB-08C4441F705B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{738502E3-8724-4EEA-BAFD-0BD5EC766802}" name="Encoder-Decoder Transformer_x0009_"/>
@@ -1913,7 +2576,7 @@
 </file>
 
 <file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}" name="Table13681012141516202224262957" displayName="Table13681012141516202224262957" ref="D155:E165" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}" name="Table13681012141516202224262957" displayName="Table13681012141516202224262957" ref="D155:E165" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="D155:E165" xr:uid="{A173506E-421B-4079-9A65-05B92593AF30}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3BFE888C-9727-4857-86E0-776E4817A04C}" name="Temporal Fusion Transformers (TFT)"/>
@@ -2199,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:E80"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3101,83 +3764,141 @@
       <c r="A71" t="s">
         <v>1</v>
       </c>
+      <c r="B71">
+        <v>484</v>
+      </c>
       <c r="D71" t="s">
         <v>1</v>
+      </c>
+      <c r="E71">
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
+      <c r="B72">
+        <v>2063</v>
+      </c>
       <c r="D72" t="s">
         <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2896</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>3</v>
       </c>
+      <c r="B73">
+        <v>956</v>
+      </c>
       <c r="D73" t="s">
         <v>3</v>
+      </c>
+      <c r="E73">
+        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>4</v>
       </c>
+      <c r="B74">
+        <v>424</v>
+      </c>
       <c r="D74" t="s">
         <v>4</v>
+      </c>
+      <c r="E74">
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>5</v>
       </c>
+      <c r="B75" t="s">
+        <v>300</v>
+      </c>
       <c r="D75" t="s">
         <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>6</v>
       </c>
+      <c r="B76" t="s">
+        <v>301</v>
+      </c>
       <c r="D76" t="s">
         <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>7</v>
       </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
       <c r="D77" t="s">
         <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>8</v>
       </c>
+      <c r="B78" t="s">
+        <v>303</v>
+      </c>
       <c r="D78" t="s">
         <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>9</v>
       </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
       <c r="D79" t="s">
         <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
@@ -3197,82 +3918,141 @@
       <c r="A83" t="s">
         <v>1</v>
       </c>
+      <c r="B83">
+        <v>680</v>
+      </c>
       <c r="D83" t="s">
         <v>1</v>
+      </c>
+      <c r="E83">
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>2</v>
       </c>
+      <c r="B84">
+        <v>2926</v>
+      </c>
       <c r="D84" t="s">
         <v>2</v>
+      </c>
+      <c r="E84">
+        <v>3574</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>3</v>
       </c>
+      <c r="B85">
+        <v>93</v>
+      </c>
       <c r="D85" t="s">
         <v>3</v>
+      </c>
+      <c r="E85">
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>4</v>
       </c>
+      <c r="B86">
+        <v>228</v>
+      </c>
       <c r="D86" t="s">
         <v>4</v>
+      </c>
+      <c r="E86">
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>5</v>
       </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
       <c r="D87" t="s">
         <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>6</v>
       </c>
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
       <c r="D88" t="s">
         <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>7</v>
       </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
       <c r="D89" t="s">
         <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>8</v>
       </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
       <c r="D90" t="s">
         <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>9</v>
       </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
       <c r="D91" t="s">
         <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
@@ -3292,83 +4072,141 @@
       <c r="A95" t="s">
         <v>1</v>
       </c>
+      <c r="B95">
+        <v>678</v>
+      </c>
       <c r="D95" t="s">
         <v>1</v>
+      </c>
+      <c r="E95">
+        <v>894</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>2</v>
       </c>
+      <c r="B96">
+        <v>2961</v>
+      </c>
       <c r="D96" t="s">
         <v>2</v>
+      </c>
+      <c r="E96">
+        <v>3591</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>3</v>
       </c>
+      <c r="B97">
+        <v>58</v>
+      </c>
       <c r="D97" t="s">
         <v>3</v>
+      </c>
+      <c r="E97">
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>4</v>
       </c>
+      <c r="B98">
+        <v>230</v>
+      </c>
       <c r="D98" t="s">
         <v>4</v>
+      </c>
+      <c r="E98">
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>5</v>
       </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
       <c r="D99" t="s">
         <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>6</v>
       </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
       <c r="D100" t="s">
         <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>7</v>
       </c>
+      <c r="B101" t="s">
+        <v>216</v>
+      </c>
       <c r="D101" t="s">
         <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>8</v>
       </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
       <c r="D102" t="s">
         <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>9</v>
       </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
       <c r="D103" t="s">
         <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
@@ -3388,83 +4226,141 @@
       <c r="A107" t="s">
         <v>1</v>
       </c>
+      <c r="B107">
+        <v>704</v>
+      </c>
       <c r="D107" t="s">
         <v>1</v>
+      </c>
+      <c r="E107">
+        <v>853</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>2</v>
       </c>
+      <c r="B108">
+        <v>2950</v>
+      </c>
       <c r="D108" t="s">
         <v>2</v>
+      </c>
+      <c r="E108">
+        <v>3574</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>3</v>
       </c>
+      <c r="B109">
+        <v>69</v>
+      </c>
       <c r="D109" t="s">
         <v>3</v>
+      </c>
+      <c r="E109">
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>4</v>
       </c>
+      <c r="B110">
+        <v>204</v>
+      </c>
       <c r="D110" t="s">
         <v>4</v>
+      </c>
+      <c r="E110">
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>5</v>
       </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
       <c r="D111" t="s">
         <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>6</v>
       </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
       <c r="D112" t="s">
         <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>7</v>
       </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
       <c r="D113" t="s">
         <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>8</v>
       </c>
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
       <c r="D114" t="s">
         <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>9</v>
       </c>
+      <c r="B115" t="s">
+        <v>223</v>
+      </c>
       <c r="D115" t="s">
         <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
@@ -3484,83 +4380,141 @@
       <c r="A119" t="s">
         <v>1</v>
       </c>
+      <c r="B119">
+        <v>835</v>
+      </c>
       <c r="D119" t="s">
         <v>1</v>
+      </c>
+      <c r="E119">
+        <v>961</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>2</v>
       </c>
+      <c r="B120">
+        <v>2959</v>
+      </c>
       <c r="D120" t="s">
         <v>2</v>
+      </c>
+      <c r="E120">
+        <v>3610</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>3</v>
       </c>
+      <c r="B121">
+        <v>60</v>
+      </c>
       <c r="D121" t="s">
         <v>3</v>
+      </c>
+      <c r="E121">
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>4</v>
       </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
       <c r="D122" t="s">
         <v>4</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
+      <c r="B123" t="s">
+        <v>224</v>
+      </c>
       <c r="D123" t="s">
         <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>6</v>
       </c>
+      <c r="B124" t="s">
+        <v>225</v>
+      </c>
       <c r="D124" t="s">
         <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>7</v>
       </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
       <c r="D125" t="s">
         <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>8</v>
       </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
       <c r="D126" t="s">
         <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>9</v>
       </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
       <c r="D127" t="s">
         <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="6" t="s">
@@ -3589,85 +4543,141 @@
       <c r="A132" t="s">
         <v>1</v>
       </c>
+      <c r="B132">
+        <v>848</v>
+      </c>
       <c r="D132" t="s">
         <v>1</v>
+      </c>
+      <c r="E132">
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>2</v>
       </c>
+      <c r="B133">
+        <v>268</v>
+      </c>
       <c r="D133" t="s">
         <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2446</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>3</v>
       </c>
+      <c r="B134">
+        <v>620</v>
+      </c>
       <c r="D134" t="s">
         <v>3</v>
+      </c>
+      <c r="E134">
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>4</v>
       </c>
+      <c r="B135">
+        <v>67</v>
+      </c>
       <c r="D135" t="s">
         <v>4</v>
+      </c>
+      <c r="E135">
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>5</v>
       </c>
+      <c r="B136" t="s">
+        <v>363</v>
+      </c>
       <c r="D136" t="s">
         <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>6</v>
       </c>
+      <c r="B137" t="s">
+        <v>364</v>
+      </c>
       <c r="D137" t="s">
         <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" t="s">
+        <v>365</v>
+      </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>8</v>
       </c>
+      <c r="B139" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="D139" t="s">
         <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>9</v>
       </c>
+      <c r="B140" t="s">
+        <v>367</v>
+      </c>
       <c r="D140" t="s">
         <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
@@ -3687,85 +4697,141 @@
       <c r="A144" t="s">
         <v>1</v>
       </c>
+      <c r="B144">
+        <v>903</v>
+      </c>
       <c r="D144" t="s">
         <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1134</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>2</v>
       </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="D145" t="s">
         <v>2</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>3</v>
       </c>
+      <c r="B146">
+        <v>3024</v>
+      </c>
       <c r="D146" t="s">
         <v>3</v>
+      </c>
+      <c r="E146">
+        <v>3595</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>4</v>
       </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="D147" t="s">
         <v>4</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>5</v>
       </c>
+      <c r="B148" t="s">
+        <v>355</v>
+      </c>
       <c r="D148" t="s">
         <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
+      <c r="B149" t="s">
+        <v>355</v>
+      </c>
       <c r="D149" t="s">
         <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>8</v>
       </c>
+      <c r="B151" t="s">
+        <v>356</v>
+      </c>
       <c r="D151" t="s">
         <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
+      <c r="B152" t="s">
+        <v>357</v>
+      </c>
       <c r="D152" t="s">
         <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="D153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
@@ -3785,85 +4851,141 @@
       <c r="A156" t="s">
         <v>1</v>
       </c>
+      <c r="B156">
+        <v>449</v>
+      </c>
       <c r="D156" t="s">
         <v>1</v>
+      </c>
+      <c r="E156">
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>2</v>
       </c>
+      <c r="B157">
+        <v>1464</v>
+      </c>
       <c r="D157" t="s">
         <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1971</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>3</v>
       </c>
+      <c r="B158">
+        <v>1560</v>
+      </c>
       <c r="D158" t="s">
         <v>3</v>
+      </c>
+      <c r="E158">
+        <v>1624</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>4</v>
       </c>
+      <c r="B159">
+        <v>454</v>
+      </c>
       <c r="D159" t="s">
         <v>4</v>
+      </c>
+      <c r="E159">
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>5</v>
       </c>
+      <c r="B160" t="s">
+        <v>358</v>
+      </c>
       <c r="D160" t="s">
         <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>6</v>
       </c>
+      <c r="B161" t="s">
+        <v>359</v>
+      </c>
       <c r="D161" t="s">
         <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>8</v>
       </c>
+      <c r="B163" t="s">
+        <v>361</v>
+      </c>
       <c r="D163" t="s">
         <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>9</v>
       </c>
+      <c r="B164" t="s">
+        <v>362</v>
+      </c>
       <c r="D164" t="s">
         <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="D165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3911,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C3A80C-C1AD-4A00-A905-B0D955A35E2F}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B80"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4813,83 +5935,141 @@
       <c r="A71" t="s">
         <v>1</v>
       </c>
+      <c r="B71">
+        <v>845</v>
+      </c>
       <c r="D71" t="s">
         <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1033</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
+      <c r="B72">
+        <v>154</v>
+      </c>
       <c r="D72" t="s">
         <v>2</v>
+      </c>
+      <c r="E72">
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>3</v>
       </c>
+      <c r="B73">
+        <v>734</v>
+      </c>
       <c r="D73" t="s">
         <v>3</v>
+      </c>
+      <c r="E73">
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>4</v>
       </c>
+      <c r="B74">
+        <v>70</v>
+      </c>
       <c r="D74" t="s">
         <v>4</v>
+      </c>
+      <c r="E74">
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>5</v>
       </c>
+      <c r="B75" t="s">
+        <v>319</v>
+      </c>
       <c r="D75" t="s">
         <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>6</v>
       </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
       <c r="D76" t="s">
         <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>7</v>
       </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
       <c r="D77" t="s">
         <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>8</v>
       </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
       <c r="D78" t="s">
         <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>9</v>
       </c>
+      <c r="B79" t="s">
+        <v>322</v>
+      </c>
       <c r="D79" t="s">
         <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
@@ -4909,83 +6089,141 @@
       <c r="A83" t="s">
         <v>1</v>
       </c>
+      <c r="B83">
+        <v>710</v>
+      </c>
       <c r="D83" t="s">
         <v>1</v>
+      </c>
+      <c r="E83">
+        <v>943</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>2</v>
       </c>
+      <c r="B84">
+        <v>800</v>
+      </c>
       <c r="D84" t="s">
         <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1038</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>3</v>
       </c>
+      <c r="B85">
+        <v>88</v>
+      </c>
       <c r="D85" t="s">
         <v>3</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>4</v>
       </c>
+      <c r="B86">
+        <v>205</v>
+      </c>
       <c r="D86" t="s">
         <v>4</v>
+      </c>
+      <c r="E86">
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>5</v>
       </c>
+      <c r="B87" t="s">
+        <v>240</v>
+      </c>
       <c r="D87" t="s">
         <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>6</v>
       </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
       <c r="D88" t="s">
         <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>7</v>
       </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
       <c r="D89" t="s">
         <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>8</v>
       </c>
+      <c r="B90" t="s">
+        <v>243</v>
+      </c>
       <c r="D90" t="s">
         <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>9</v>
       </c>
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
       <c r="D91" t="s">
         <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
@@ -5005,83 +6243,141 @@
       <c r="A95" t="s">
         <v>1</v>
       </c>
+      <c r="B95">
+        <v>738</v>
+      </c>
       <c r="D95" t="s">
         <v>1</v>
+      </c>
+      <c r="E95">
+        <v>923</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>2</v>
       </c>
+      <c r="B96">
+        <v>816</v>
+      </c>
       <c r="D96" t="s">
         <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1077</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>3</v>
       </c>
+      <c r="B97">
+        <v>72</v>
+      </c>
       <c r="D97" t="s">
         <v>3</v>
+      </c>
+      <c r="E97">
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>4</v>
       </c>
+      <c r="B98">
+        <v>177</v>
+      </c>
       <c r="D98" t="s">
         <v>4</v>
+      </c>
+      <c r="E98">
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>5</v>
       </c>
+      <c r="B99" t="s">
+        <v>245</v>
+      </c>
       <c r="D99" t="s">
         <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>6</v>
       </c>
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
       <c r="D100" t="s">
         <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>7</v>
       </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
       <c r="D101" t="s">
         <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>8</v>
       </c>
+      <c r="B102" t="s">
+        <v>248</v>
+      </c>
       <c r="D102" t="s">
         <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>9</v>
       </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
       <c r="D103" t="s">
         <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
@@ -5101,83 +6397,141 @@
       <c r="A107" t="s">
         <v>1</v>
       </c>
+      <c r="B107">
+        <v>755</v>
+      </c>
       <c r="D107" t="s">
         <v>1</v>
+      </c>
+      <c r="E107">
+        <v>875</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>2</v>
       </c>
+      <c r="B108">
+        <v>673</v>
+      </c>
       <c r="D108" t="s">
         <v>2</v>
+      </c>
+      <c r="E108">
+        <v>1012</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>3</v>
       </c>
+      <c r="B109">
+        <v>215</v>
+      </c>
       <c r="D109" t="s">
         <v>3</v>
+      </c>
+      <c r="E109">
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>4</v>
       </c>
+      <c r="B110">
+        <v>160</v>
+      </c>
       <c r="D110" t="s">
         <v>4</v>
+      </c>
+      <c r="E110">
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>5</v>
       </c>
+      <c r="B111" t="s">
+        <v>264</v>
+      </c>
       <c r="D111" t="s">
         <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>6</v>
       </c>
+      <c r="B112" t="s">
+        <v>265</v>
+      </c>
       <c r="D112" t="s">
         <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>7</v>
       </c>
+      <c r="B113" t="s">
+        <v>266</v>
+      </c>
       <c r="D113" t="s">
         <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>8</v>
       </c>
+      <c r="B114" t="s">
+        <v>267</v>
+      </c>
       <c r="D114" t="s">
         <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>9</v>
       </c>
+      <c r="B115" t="s">
+        <v>268</v>
+      </c>
       <c r="D115" t="s">
         <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
@@ -5197,83 +6551,141 @@
       <c r="A119" t="s">
         <v>1</v>
       </c>
+      <c r="B119">
+        <v>819</v>
+      </c>
       <c r="D119" t="s">
         <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1056</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>2</v>
       </c>
+      <c r="B120">
+        <v>818</v>
+      </c>
       <c r="D120" t="s">
         <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1069</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>3</v>
       </c>
+      <c r="B121">
+        <v>70</v>
+      </c>
       <c r="D121" t="s">
         <v>3</v>
+      </c>
+      <c r="E121">
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>4</v>
       </c>
+      <c r="B122">
+        <v>96</v>
+      </c>
       <c r="D122" t="s">
         <v>4</v>
+      </c>
+      <c r="E122">
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
+      <c r="B123" t="s">
+        <v>270</v>
+      </c>
       <c r="D123" t="s">
         <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>6</v>
       </c>
+      <c r="B124" t="s">
+        <v>271</v>
+      </c>
       <c r="D124" t="s">
         <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>7</v>
       </c>
+      <c r="B125" t="s">
+        <v>272</v>
+      </c>
       <c r="D125" t="s">
         <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>8</v>
       </c>
+      <c r="B126" t="s">
+        <v>273</v>
+      </c>
       <c r="D126" t="s">
         <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>9</v>
       </c>
+      <c r="B127" t="s">
+        <v>274</v>
+      </c>
       <c r="D127" t="s">
         <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="6" t="s">
@@ -5302,85 +6714,141 @@
       <c r="A132" t="s">
         <v>1</v>
       </c>
+      <c r="B132">
+        <v>842</v>
+      </c>
       <c r="D132" t="s">
         <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1096</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>2</v>
       </c>
+      <c r="B133">
+        <v>287</v>
+      </c>
       <c r="D133" t="s">
         <v>2</v>
+      </c>
+      <c r="E133">
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>3</v>
       </c>
+      <c r="B134">
+        <v>601</v>
+      </c>
       <c r="D134" t="s">
         <v>3</v>
+      </c>
+      <c r="E134">
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>4</v>
       </c>
+      <c r="B135">
+        <v>73</v>
+      </c>
       <c r="D135" t="s">
         <v>4</v>
+      </c>
+      <c r="E135">
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>5</v>
       </c>
+      <c r="B136" t="s">
+        <v>381</v>
+      </c>
       <c r="D136" t="s">
         <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>6</v>
       </c>
+      <c r="B137" t="s">
+        <v>382</v>
+      </c>
       <c r="D137" t="s">
         <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>8</v>
       </c>
+      <c r="B139" t="s">
+        <v>384</v>
+      </c>
       <c r="D139" t="s">
         <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>9</v>
       </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
       <c r="D140" t="s">
         <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
@@ -5400,85 +6868,141 @@
       <c r="A144" t="s">
         <v>1</v>
       </c>
+      <c r="B144">
+        <v>904</v>
+      </c>
       <c r="D144" t="s">
         <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1134</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>2</v>
       </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="D145" t="s">
         <v>2</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>3</v>
       </c>
+      <c r="B146">
+        <v>899</v>
+      </c>
       <c r="D146" t="s">
         <v>3</v>
+      </c>
+      <c r="E146">
+        <v>1142</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>4</v>
       </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="D147" t="s">
         <v>4</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>5</v>
       </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
       <c r="D148" t="s">
         <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
       <c r="D149" t="s">
         <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>8</v>
       </c>
+      <c r="B151" t="s">
+        <v>385</v>
+      </c>
       <c r="D151" t="s">
         <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
+      <c r="B152" t="s">
+        <v>386</v>
+      </c>
       <c r="D152" t="s">
         <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="D153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
@@ -5498,85 +7022,141 @@
       <c r="A156" t="s">
         <v>1</v>
       </c>
+      <c r="B156">
+        <v>868</v>
+      </c>
       <c r="D156" t="s">
         <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1129</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>2</v>
       </c>
+      <c r="B157">
+        <v>36</v>
+      </c>
       <c r="D157" t="s">
         <v>2</v>
+      </c>
+      <c r="E157">
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>3</v>
       </c>
+      <c r="B158">
+        <v>863</v>
+      </c>
       <c r="D158" t="s">
         <v>3</v>
+      </c>
+      <c r="E158">
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>4</v>
       </c>
+      <c r="B159">
+        <v>36</v>
+      </c>
       <c r="D159" t="s">
         <v>4</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>5</v>
       </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
       <c r="D160" t="s">
         <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>6</v>
       </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
       <c r="D161" t="s">
         <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>8</v>
       </c>
+      <c r="B163" t="s">
+        <v>396</v>
+      </c>
       <c r="D163" t="s">
         <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>9</v>
       </c>
+      <c r="B164" t="s">
+        <v>386</v>
+      </c>
       <c r="D164" t="s">
         <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="D165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5624,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C6061A-A3B3-45CA-9ABF-E0DB44EA658D}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6526,83 +8106,141 @@
       <c r="A71" t="s">
         <v>1</v>
       </c>
+      <c r="B71">
+        <v>2988</v>
+      </c>
       <c r="D71" t="s">
         <v>1</v>
+      </c>
+      <c r="E71">
+        <v>3559</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="D72" t="s">
         <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>3</v>
       </c>
+      <c r="B73">
+        <v>3059</v>
+      </c>
       <c r="D73" t="s">
         <v>3</v>
+      </c>
+      <c r="E73">
+        <v>3631</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>4</v>
       </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
       <c r="D74" t="s">
         <v>4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>5</v>
       </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
       <c r="D75" t="s">
         <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>6</v>
       </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
       <c r="D76" t="s">
         <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>7</v>
       </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
       <c r="D77" t="s">
         <v>7</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>8</v>
       </c>
+      <c r="B78" t="s">
+        <v>340</v>
+      </c>
       <c r="D78" t="s">
         <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>9</v>
       </c>
+      <c r="B79" t="s">
+        <v>341</v>
+      </c>
       <c r="D79" t="s">
         <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
@@ -6622,83 +8260,141 @@
       <c r="A83" t="s">
         <v>1</v>
       </c>
+      <c r="B83">
+        <v>2635</v>
+      </c>
       <c r="D83" t="s">
         <v>1</v>
+      </c>
+      <c r="E83">
+        <v>3227</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>2</v>
       </c>
+      <c r="B84">
+        <v>2868</v>
+      </c>
       <c r="D84" t="s">
         <v>2</v>
+      </c>
+      <c r="E84">
+        <v>3409</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>3</v>
       </c>
+      <c r="B85">
+        <v>191</v>
+      </c>
       <c r="D85" t="s">
         <v>3</v>
+      </c>
+      <c r="E85">
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>4</v>
       </c>
+      <c r="B86">
+        <v>353</v>
+      </c>
       <c r="D86" t="s">
         <v>4</v>
+      </c>
+      <c r="E86">
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>5</v>
       </c>
+      <c r="B87" t="s">
+        <v>290</v>
+      </c>
       <c r="D87" t="s">
         <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>6</v>
       </c>
+      <c r="B88" t="s">
+        <v>291</v>
+      </c>
       <c r="D88" t="s">
         <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>7</v>
       </c>
+      <c r="B89" t="s">
+        <v>292</v>
+      </c>
       <c r="D89" t="s">
         <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>8</v>
       </c>
+      <c r="B90" t="s">
+        <v>293</v>
+      </c>
       <c r="D90" t="s">
         <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>9</v>
       </c>
+      <c r="B91" t="s">
+        <v>294</v>
+      </c>
       <c r="D91" t="s">
         <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
@@ -6718,83 +8414,141 @@
       <c r="A95" t="s">
         <v>1</v>
       </c>
+      <c r="B95">
+        <v>2417</v>
+      </c>
       <c r="D95" t="s">
         <v>1</v>
+      </c>
+      <c r="E95">
+        <v>3119</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>2</v>
       </c>
+      <c r="B96">
+        <v>2906</v>
+      </c>
       <c r="D96" t="s">
         <v>2</v>
+      </c>
+      <c r="E96">
+        <v>3389</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>3</v>
       </c>
+      <c r="B97">
+        <v>153</v>
+      </c>
       <c r="D97" t="s">
         <v>3</v>
+      </c>
+      <c r="E97">
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>4</v>
       </c>
+      <c r="B98">
+        <v>571</v>
+      </c>
       <c r="D98" t="s">
         <v>4</v>
+      </c>
+      <c r="E98">
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>5</v>
       </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
       <c r="D99" t="s">
         <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>6</v>
       </c>
+      <c r="B100" t="s">
+        <v>296</v>
+      </c>
       <c r="D100" t="s">
         <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>7</v>
       </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
       <c r="D101" t="s">
         <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>8</v>
       </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
       <c r="D102" t="s">
         <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>9</v>
       </c>
+      <c r="B103" t="s">
+        <v>299</v>
+      </c>
       <c r="D103" t="s">
         <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
@@ -6814,83 +8568,141 @@
       <c r="A107" t="s">
         <v>1</v>
       </c>
+      <c r="B107">
+        <v>2660</v>
+      </c>
       <c r="D107" t="s">
         <v>1</v>
+      </c>
+      <c r="E107">
+        <v>3121</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>2</v>
       </c>
+      <c r="B108">
+        <v>2935</v>
+      </c>
       <c r="D108" t="s">
         <v>2</v>
+      </c>
+      <c r="E108">
+        <v>3460</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>3</v>
       </c>
+      <c r="B109">
+        <v>124</v>
+      </c>
       <c r="D109" t="s">
         <v>3</v>
+      </c>
+      <c r="E109">
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>4</v>
       </c>
+      <c r="B110">
+        <v>328</v>
+      </c>
       <c r="D110" t="s">
         <v>4</v>
+      </c>
+      <c r="E110">
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>5</v>
       </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
       <c r="D111" t="s">
         <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>6</v>
       </c>
+      <c r="B112" t="s">
+        <v>324</v>
+      </c>
       <c r="D112" t="s">
         <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>7</v>
       </c>
+      <c r="B113" t="s">
+        <v>325</v>
+      </c>
       <c r="D113" t="s">
         <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>8</v>
       </c>
+      <c r="B114" t="s">
+        <v>326</v>
+      </c>
       <c r="D114" t="s">
         <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>9</v>
       </c>
+      <c r="B115" t="s">
+        <v>327</v>
+      </c>
       <c r="D115" t="s">
         <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
@@ -6910,83 +8722,141 @@
       <c r="A119" t="s">
         <v>1</v>
       </c>
+      <c r="B119">
+        <v>2859</v>
+      </c>
       <c r="D119" t="s">
         <v>1</v>
+      </c>
+      <c r="E119">
+        <v>3305</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>2</v>
       </c>
+      <c r="B120">
+        <v>3009</v>
+      </c>
       <c r="D120" t="s">
         <v>2</v>
+      </c>
+      <c r="E120">
+        <v>3542</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>3</v>
       </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
       <c r="D121" t="s">
         <v>3</v>
+      </c>
+      <c r="E121">
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>4</v>
       </c>
+      <c r="B122">
+        <v>129</v>
+      </c>
       <c r="D122" t="s">
         <v>4</v>
+      </c>
+      <c r="E122">
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
+      <c r="B123" t="s">
+        <v>329</v>
+      </c>
       <c r="D123" t="s">
         <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>6</v>
       </c>
+      <c r="B124" t="s">
+        <v>330</v>
+      </c>
       <c r="D124" t="s">
         <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>7</v>
       </c>
+      <c r="B125" t="s">
+        <v>331</v>
+      </c>
       <c r="D125" t="s">
         <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>8</v>
       </c>
+      <c r="B126" t="s">
+        <v>332</v>
+      </c>
       <c r="D126" t="s">
         <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>9</v>
       </c>
+      <c r="B127" t="s">
+        <v>333</v>
+      </c>
       <c r="D127" t="s">
         <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="6" t="s">
@@ -7015,85 +8885,141 @@
       <c r="A132" t="s">
         <v>1</v>
       </c>
+      <c r="B132">
+        <v>2695</v>
+      </c>
       <c r="D132" t="s">
         <v>1</v>
+      </c>
+      <c r="E132">
+        <v>3258</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>2</v>
       </c>
+      <c r="B133">
+        <v>1859</v>
+      </c>
       <c r="D133" t="s">
         <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1646</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>3</v>
       </c>
+      <c r="B134">
+        <v>1200</v>
+      </c>
       <c r="D134" t="s">
         <v>3</v>
+      </c>
+      <c r="E134">
+        <v>1985</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>4</v>
       </c>
+      <c r="B135">
+        <v>293</v>
+      </c>
       <c r="D135" t="s">
         <v>4</v>
+      </c>
+      <c r="E135">
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>5</v>
       </c>
+      <c r="B136" t="s">
+        <v>402</v>
+      </c>
       <c r="D136" t="s">
         <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>6</v>
       </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
       <c r="D137" t="s">
         <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" t="s">
+        <v>403</v>
+      </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>8</v>
       </c>
+      <c r="B139" t="s">
+        <v>78</v>
+      </c>
       <c r="D139" t="s">
         <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>9</v>
       </c>
+      <c r="B140" t="s">
+        <v>404</v>
+      </c>
       <c r="D140" t="s">
         <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="D141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="28.8">
       <c r="A143" s="1" t="s">
@@ -7113,85 +9039,141 @@
       <c r="A144" t="s">
         <v>1</v>
       </c>
+      <c r="B144">
+        <v>3023</v>
+      </c>
       <c r="D144" t="s">
         <v>1</v>
+      </c>
+      <c r="E144">
+        <v>3595</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>2</v>
       </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="D145" t="s">
         <v>2</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>3</v>
       </c>
+      <c r="B146">
+        <v>3024</v>
+      </c>
       <c r="D146" t="s">
         <v>3</v>
+      </c>
+      <c r="E146">
+        <v>3595</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>4</v>
       </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="D147" t="s">
         <v>4</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>5</v>
       </c>
+      <c r="B148" t="s">
+        <v>405</v>
+      </c>
       <c r="D148" t="s">
         <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
+      <c r="B149" t="s">
+        <v>405</v>
+      </c>
       <c r="D149" t="s">
         <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150">
+        <v>1</v>
+      </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>8</v>
       </c>
+      <c r="B151" t="s">
+        <v>406</v>
+      </c>
       <c r="D151" t="s">
         <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
+      <c r="B152" t="s">
+        <v>407</v>
+      </c>
       <c r="D152" t="s">
         <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="D153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="28.8">
       <c r="A155" s="1" t="s">
@@ -7211,85 +9193,141 @@
       <c r="A156" t="s">
         <v>1</v>
       </c>
+      <c r="B156">
+        <v>2268</v>
+      </c>
       <c r="D156" t="s">
         <v>1</v>
+      </c>
+      <c r="E156">
+        <v>2552</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>2</v>
       </c>
+      <c r="B157">
+        <v>799</v>
+      </c>
       <c r="D157" t="s">
         <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1036</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>3</v>
       </c>
+      <c r="B158">
+        <v>2225</v>
+      </c>
       <c r="D158" t="s">
         <v>3</v>
+      </c>
+      <c r="E158">
+        <v>2559</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>4</v>
       </c>
+      <c r="B159">
+        <v>755</v>
+      </c>
       <c r="D159" t="s">
         <v>4</v>
+      </c>
+      <c r="E159">
+        <v>1043</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>5</v>
       </c>
+      <c r="B160" t="s">
+        <v>417</v>
+      </c>
       <c r="D160" t="s">
         <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>6</v>
       </c>
+      <c r="B161" t="s">
+        <v>418</v>
+      </c>
       <c r="D161" t="s">
         <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" t="s">
+        <v>419</v>
+      </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>8</v>
       </c>
+      <c r="B163" t="s">
+        <v>420</v>
+      </c>
       <c r="D163" t="s">
         <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>9</v>
       </c>
+      <c r="B164" t="s">
+        <v>421</v>
+      </c>
       <c r="D164" t="s">
         <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="D165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
